--- a/tools/rule_extend.xlsx
+++ b/tools/rule_extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavor/program/d3-node/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6571528F-1409-7F4D-AF6B-AC10454AB8A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64BE6E0A-51EE-5542-B863-5FB9D74E486C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="580">
   <si>
     <t>ID</t>
   </si>
@@ -34,150 +34,282 @@
     <t>7天内多平台借贷总数[e]</t>
   </si>
   <si>
+    <t>7天内申请人在多个平台申请借款 &lt; 5 &amp;&amp; 7天内申请人在多个平台申请借款 &gt;= 0</t>
+  </si>
+  <si>
     <t>7天内申请人在多个平台申请借款 &lt; 10</t>
   </si>
   <si>
     <t>1个月内多平台借贷总数[e]</t>
   </si>
   <si>
+    <t>1个月内申请人在多个平台申请借款 &lt; 10 &amp;&amp; 1个月内申请人在多个平台申请借款 &gt;= 0</t>
+  </si>
+  <si>
     <t>1个月内申请人在多个平台申请借款 &lt; 20</t>
   </si>
   <si>
     <t>3个月内身份证关联多个申请信息[e]</t>
   </si>
   <si>
+    <t>3个月内身份证关联多个申请信息 &gt;= 0 &amp;&amp; 3个月内身份证关联多个申请信息 &lt;= 2</t>
+  </si>
+  <si>
     <t>3个月内身份证关联多个申请信息 &lt;= 4</t>
   </si>
   <si>
     <t>3个月内申请信息关联多个身份证[e]</t>
   </si>
   <si>
+    <t>3个月内申请信息关联多个身份证 &gt;= 0 &amp;&amp; 3个月内申请信息关联多个身份证 &lt;= 2</t>
+  </si>
+  <si>
     <t>3个月内申请信息关联多个身份证 &lt;= 4</t>
   </si>
   <si>
     <t>7天内设备使用过多的身份证或手机号进行申请[e]</t>
   </si>
   <si>
+    <t>7天内设备使用过多的身份证或手机号进行申请 &gt;= 0 &amp;&amp; 7天内设备使用过多的身份证或手机号进行申请 &lt;= 1</t>
+  </si>
+  <si>
     <t>7天内设备使用过多的身份证或手机号进行申请 &lt;= 3</t>
   </si>
   <si>
     <t>7天内身份证使用过多设备进行申请[e]</t>
   </si>
   <si>
+    <t>7天内身份证关联设备数 &gt;= 0 &amp;&amp; 7天内身份证关联设备数 &lt;= 2</t>
+  </si>
+  <si>
     <t>7天内身份证关联设备数 &lt;= 4</t>
   </si>
   <si>
     <t>1个月内身份证使用过多设备进行申请[e]</t>
   </si>
   <si>
+    <t>1个月内身份证使用过多设备进行申请 &gt;= 0 &amp;&amp; 1个月内身份证使用过多设备进行申请 &lt;= 2</t>
+  </si>
+  <si>
     <t>1个月内身份证使用过多设备进行申请 &lt;= 4</t>
   </si>
   <si>
     <t>黑中介分[e]</t>
   </si>
   <si>
+    <t>蜜罐黑中介分 &gt;= 0 &amp;&amp; 蜜罐黑中介分 &lt;=5</t>
+  </si>
+  <si>
+    <t>蜜罐黑中介分&lt;=10 &amp;&amp; 蜜罐黑中介分 &gt; 5</t>
+  </si>
+  <si>
     <t>蜜罐黑中介分&lt;=100</t>
   </si>
   <si>
     <t>7天内查询次数[e]</t>
   </si>
   <si>
+    <t>蜜罐近7天查询次数 &gt;=0 &amp;&amp; 蜜罐近7天查询次数 &lt; 5</t>
+  </si>
+  <si>
     <t>蜜罐近7天查询次数 &lt; 10</t>
   </si>
   <si>
     <t>1个月内查询次数[e]</t>
   </si>
   <si>
+    <t>蜜罐近1个月查询次数 &gt;= 0 &amp;&amp; 蜜罐近1个月查询次数 &lt; 10</t>
+  </si>
+  <si>
     <t>蜜罐近1个月查询次数 &lt; 15</t>
   </si>
   <si>
     <t>贷款类号码主叫个数[e]</t>
   </si>
   <si>
+    <t>主叫贷款类号码联系情况&gt;=5 &amp;&amp; 主叫贷款类号码联系情况 &lt;= 10000</t>
+  </si>
+  <si>
+    <t>主叫贷款类号码联系情况 &gt;=3 &amp;&amp; 主叫贷款类号码联系情况 &lt;=5</t>
+  </si>
+  <si>
     <t>主叫贷款类号码联系情况 &gt;= -1 &amp;&amp; 主叫贷款类号码联系情况 &lt;=3</t>
   </si>
   <si>
     <t>贷款类号码被叫个数[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">被叫贷款类号码联系情况 &gt;= 3 </t>
+  </si>
+  <si>
+    <t>被叫贷款类号码联系情况 &gt;= 1</t>
+  </si>
+  <si>
     <t>被叫贷款类号码联系情况 &gt;= -1</t>
   </si>
   <si>
     <t>拒单机构占比[e]</t>
   </si>
   <si>
+    <t>91拒单机构占比 == 1</t>
+  </si>
+  <si>
+    <t>91拒单机构占比 &gt;= 0.5 &amp;&amp; 91拒单机构占比 &lt;= 1</t>
+  </si>
+  <si>
     <t>91拒单机构占比 &gt;= 0 &amp;&amp; 91拒单机构占比 &lt;= 0.5</t>
   </si>
   <si>
     <t>常住地址重复[e]</t>
   </si>
   <si>
+    <t>常住地址出现次数&gt;=1</t>
+  </si>
+  <si>
     <t>常住地址出现次数 &gt;= 0 &amp;&amp; 常住地址出现次数 &lt;= 1</t>
   </si>
   <si>
     <t>单位地址重复[e]</t>
   </si>
   <si>
+    <t>公司地址出现次数 &gt;= 5</t>
+  </si>
+  <si>
+    <t>公司地址出现次数 &gt;= 3 &amp;&amp; 公司地址出现次数 &lt; 5</t>
+  </si>
+  <si>
     <t>公司地址出现次数 &gt;= 0 &amp;&amp; 公司地址出现次数 &lt; 3</t>
   </si>
   <si>
     <t>一个设备使用多个手机号注册[e]</t>
   </si>
   <si>
+    <t>设备曾用手机号 &gt;= 0 &amp;&amp; 设备曾用手机号 &lt;= 1</t>
+  </si>
+  <si>
+    <t>设备曾用手机号 == 2</t>
+  </si>
+  <si>
     <t>设备曾用手机号 &gt;= 3</t>
   </si>
   <si>
     <t>一个手机号登录多个设备注册[e]</t>
   </si>
   <si>
+    <t>判断设备数量 &gt;= 0 &amp;&amp; 判断设备数量 &lt;= 1</t>
+  </si>
+  <si>
+    <t>判断设备数量 == 2</t>
+  </si>
+  <si>
     <t>判断设备数量 &gt;= 3</t>
   </si>
   <si>
     <t>单位名称重复[e]</t>
   </si>
   <si>
+    <t>公司名出现次数 &gt;= 0 &amp;&amp; 公司名出现次数&lt;=2</t>
+  </si>
+  <si>
+    <t>公司名出现次数 &gt;= 3 &amp;&amp; 公司名出现次数 &lt;= 4</t>
+  </si>
+  <si>
     <t>公司名出现次数 &gt;= 5</t>
   </si>
   <si>
     <t>一个单位电话关联多个单位名称或地址[e]</t>
   </si>
   <si>
+    <t>一个单位电话关联多个单位名称或地址 &gt;= 0 &amp;&amp;  一个单位电话关联多个单位名称或地址 &lt;=1</t>
+  </si>
+  <si>
     <t>一个单位电话关联多个单位名称或地址 == 2</t>
   </si>
   <si>
     <t>一个单位地址关联多个单位电话或名称[e]</t>
   </si>
   <si>
+    <t>一个单位地址关联多个单位电话或名称 &gt;= 0 &amp;&amp; 一个单位地址关联多个单位电话或名称 &lt;= 1</t>
+  </si>
+  <si>
     <t>一个单位地址关联多个单位电话或名称 == 2</t>
   </si>
   <si>
     <t>一个单位名称关联多个单位电话或地址[e]</t>
   </si>
   <si>
+    <t>一个单位名称关联多个单位电话或地址&gt;=0 &amp;&amp; 一个单位名称关联多个单位电话或地址 &lt;= 1</t>
+  </si>
+  <si>
     <t>一个单位名称关联多个单位电话或地址 == 2</t>
   </si>
   <si>
     <t>直接联系人注册数[e]</t>
   </si>
   <si>
+    <t>直接联系人注册数 &gt;= 0 &amp;&amp;  直接联系人注册数 &lt;= 2</t>
+  </si>
+  <si>
     <t>直接联系人注册数 &gt;= 3 &amp;&amp; 直接联系人注册数 &lt;= 4</t>
   </si>
   <si>
     <t>禁止项[e]</t>
   </si>
   <si>
+    <t>宜信风险名单 == 2</t>
+  </si>
+  <si>
+    <t>宜信借款逾期 == 2</t>
+  </si>
+  <si>
+    <t>芝麻信用行业关注名单逾期未处理 == 2</t>
+  </si>
+  <si>
+    <t>芝麻信用行业关注名单黑名单 == 2</t>
+  </si>
+  <si>
+    <t>中智诚黑名单 == 2</t>
+  </si>
+  <si>
+    <t>中智诚反欺诈风险高 == 2</t>
+  </si>
+  <si>
+    <t>蜜罐黑名单 == 2</t>
+  </si>
+  <si>
+    <t>同盾手机网贷黑名单 == 2</t>
+  </si>
+  <si>
+    <t>同盾身份证网贷黑名单 == 2</t>
+  </si>
+  <si>
+    <t>同盾其他黑名单 == 2</t>
+  </si>
+  <si>
+    <t>91逾期 == 2</t>
+  </si>
+  <si>
     <t>白骑士反欺诈风险名单 == 2</t>
   </si>
   <si>
     <t>年龄[e]</t>
   </si>
   <si>
+    <t>年龄（身份证） &gt;= 0 &amp;&amp; 年龄（身份证） &lt;= 18</t>
+  </si>
+  <si>
+    <t>年龄（身份证） &gt;= 19 &amp;&amp; 年龄（身份证） &lt;= 30</t>
+  </si>
+  <si>
     <t>年龄（身份证） &gt;= 31 &amp;&amp; 年龄（身份证） &lt;= 50</t>
   </si>
   <si>
     <t>性别[e]</t>
   </si>
   <si>
+    <t>性别（身份证）== 1</t>
+  </si>
+  <si>
     <t>性别（身份证） == 2</t>
   </si>
   <si>
@@ -190,138 +322,390 @@
     <t>信用卡[e]</t>
   </si>
   <si>
+    <t>信用卡 == 1</t>
+  </si>
+  <si>
     <t>信用卡 == 2</t>
   </si>
   <si>
     <t>户籍所在城市[e]</t>
   </si>
   <si>
+    <t>户籍 &gt;= 1 &amp;&amp; 户籍 &lt;= 13</t>
+  </si>
+  <si>
     <t>户籍 &gt;= 14 &amp;&amp; 户籍 &lt;= 94</t>
   </si>
   <si>
     <t>通讯录有效号码数[e]</t>
   </si>
   <si>
+    <t>判断通讯录手机号数量 &gt;=0 &amp;&amp; 判断通讯录手机号数量 &lt;= 20</t>
+  </si>
+  <si>
+    <t>判断通讯录手机号数量 &gt;= 21 &amp;&amp; 判断通讯录手机号数量 &lt;= 50</t>
+  </si>
+  <si>
     <t>判断通讯录手机号数量 &gt;=51 &amp;&amp; 判断通讯录手机号数量 &lt;= 10000</t>
   </si>
   <si>
     <t>互通过电话的号码数[e]</t>
   </si>
   <si>
+    <t>互通过电话的号码数量检验 &gt;= 0 &amp;&amp; 互通过电话的号码数量检验 &lt;= 20</t>
+  </si>
+  <si>
+    <t>互通过电话的号码数量检验 &gt;= 21 &amp;&amp; 互通过电话的号码数量检验 &lt;=50</t>
+  </si>
+  <si>
     <t>互通过电话的号码数量检验 &gt;= 51 &amp;&amp; 互通过电话的号码数量检验 &lt;= 10000</t>
   </si>
   <si>
     <t>与第二联系人最晚沟通时间[e]</t>
   </si>
   <si>
+    <t>第二联系人最晚沟通时间 &gt;= 0 &amp;&amp; 第二联系人最晚沟通时间 &lt;= 30</t>
+  </si>
+  <si>
+    <t>第二联系人最晚沟通时间 &gt;= 30 &amp;&amp; 第二联系人最晚沟通时间 &lt;= 90</t>
+  </si>
+  <si>
     <t>第二联系人最晚沟通时间 &gt;= 90 &amp;&amp; 第二联系人最晚沟通时间 &lt;= 10000</t>
   </si>
   <si>
     <t>与第二联系人互通电话次数[e]</t>
   </si>
   <si>
+    <t>第二联系人通话次数 &gt;= 0 &amp;&amp; 第二联系人通话次数 &lt;= 10</t>
+  </si>
+  <si>
+    <t>第二联系人通话次数 &gt;= 11 &amp;&amp; 第二联系人通话次数 &lt;=20</t>
+  </si>
+  <si>
     <t>第二联系人通话次数 &gt;= 21 &amp;&amp; 第二联系人通话次数 &lt;= 10000</t>
   </si>
   <si>
     <t>与第二联系人互动排名[e]</t>
   </si>
   <si>
+    <t>第二联系人通话排名 &gt;=1 &amp;&amp; 第二联系人通话排名 &lt;= 30</t>
+  </si>
+  <si>
+    <t>第二联系人通话排名 &gt;= 31 &amp;&amp; 第二联系人通话排名 &lt;= 100</t>
+  </si>
+  <si>
     <t>第二联系人通话排名 &gt;= 101 &amp;&amp; 第二联系人通话排名 &lt;= 10000</t>
   </si>
   <si>
     <t>与亲属联系人最晚沟通时间[e]</t>
   </si>
   <si>
+    <t>第一联系人最晚沟通时间 &gt;= 0 &amp;&amp; @ 39 &lt;=30</t>
+  </si>
+  <si>
+    <t>第一联系人最晚沟通时间 &gt;= 30 &amp;&amp; 第一联系人最晚沟通时间 &lt;= 90</t>
+  </si>
+  <si>
     <t>第一联系人最晚沟通时间 &gt;= 90 &amp;&amp; 第一联系人最晚沟通时间 &lt;=10000</t>
   </si>
   <si>
     <t>与亲属联系人互通电话次数[e]</t>
   </si>
   <si>
+    <t>第一联系人通话次数 &gt;= 0 &amp;&amp; 第一联系人通话次数 &lt;=10</t>
+  </si>
+  <si>
+    <t>第一联系人通话次数 &gt;= 11 &amp;&amp; 第一联系人通话次数 &lt;=30</t>
+  </si>
+  <si>
     <t>第一联系人通话次数 &gt;= 31 &amp;&amp; 第一联系人通话次数 &lt;= 10000</t>
   </si>
   <si>
     <t>与亲属联系人互动排名[e]</t>
   </si>
   <si>
+    <t>第一联系人通话排名 &gt;= 1 &amp;&amp; 第一联系人通话排名 &lt;= 10</t>
+  </si>
+  <si>
+    <t>第一联系人通话排名 &gt;= 11 &amp;&amp; 第一联系人通话排名 &lt;= 20</t>
+  </si>
+  <si>
     <t>第一联系人通话排名 &gt;= 21 &amp;&amp; 第一联系人通话排名 &lt;= 10000</t>
   </si>
   <si>
     <t>澳门通话[e]</t>
   </si>
   <si>
+    <t>澳门通话 == 1</t>
+  </si>
+  <si>
     <t>澳门通话 == 2</t>
   </si>
   <si>
     <t>连续关机天数[e]</t>
   </si>
   <si>
+    <t>关机情况检验 &gt;= 0 &amp;&amp; 关机情况检验 &lt;= 2</t>
+  </si>
+  <si>
+    <t>关机情况检验 &gt;= 3 &amp;&amp; 关机情况检验 &lt;= 5</t>
+  </si>
+  <si>
     <t>关机情况检验 &gt;= 6 &amp;&amp; 关机情况检验 &lt;= 100</t>
   </si>
   <si>
     <t>实名使用时间[e]</t>
   </si>
   <si>
+    <t>实名时间限制规则 &gt;= 0 &amp;&amp; 实名时间限制规则 &lt;= 6</t>
+  </si>
+  <si>
+    <t>实名时间限制规则 &gt;= 6 &amp;&amp; 实名时间限制规则 &lt;= 12</t>
+  </si>
+  <si>
     <t>实名时间限制规则 &gt;= 12 &amp;&amp; 实名时间限制规则 &lt;= 10000</t>
   </si>
   <si>
     <t>近6个月月均话费</t>
   </si>
   <si>
+    <t>月均话费 &gt;= 0 &amp;&amp; 月均话费 &lt;= 50</t>
+  </si>
+  <si>
+    <t>月均话费 &gt;= 50 &amp;&amp; 月均话费 &lt;= 100</t>
+  </si>
+  <si>
     <t>月均话费 &gt;= 100 &amp;&amp; 月均话费 &lt;= 100000</t>
   </si>
   <si>
     <t>还款状态[e]</t>
   </si>
   <si>
+    <t>91还款状态 == 1 || 91还款状态 == 2</t>
+  </si>
+  <si>
+    <t>91还款状态 ==3</t>
+  </si>
+  <si>
     <t>91还款状态 == 4</t>
   </si>
   <si>
     <t>历史逾期情况-宜信</t>
   </si>
   <si>
+    <t>宜信借款信息 == 1</t>
+  </si>
+  <si>
+    <t>宜信借款信息 == 2</t>
+  </si>
+  <si>
+    <t>宜信借款信息 == 3</t>
+  </si>
+  <si>
     <t>宜信借款信息 == 4</t>
   </si>
   <si>
     <t>历史逾期情况-芝麻信用</t>
   </si>
   <si>
+    <t>芝麻历史逾期情况 == 1</t>
+  </si>
+  <si>
+    <t>芝麻历史逾期情况 == 2 || 芝麻历史逾期情况 == 3 || 芝麻历史逾期情况 == 4 || 芝麻历史逾期情况 == 5 || 芝麻历史逾期情况 == 6 || 芝麻历史逾期情况 == 7 || 芝麻历史逾期情况 == 8 || 芝麻历史逾期情况 ==9</t>
+  </si>
+  <si>
+    <t>芝麻历史逾期情况 == 10 || 芝麻历史逾期情况 == 11</t>
+  </si>
+  <si>
     <t>芝麻历史逾期情况 == 12 || 芝麻历史逾期情况 == 13 || 芝麻历史逾期情况 == 14 || 芝麻历史逾期情况 == 15 || 芝麻历史逾期情况 == 16</t>
   </si>
   <si>
     <t>还款记录</t>
   </si>
   <si>
+    <t>后台还款记录 == 1</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 2</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 3</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 4 || 后台还款记录 == 5 || 后台还款记录 == 6</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 7 || 后台还款记录 == 8 || 后台还款记录 == 9</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 10 || 后台还款记录 == 11 || 后台还款记录 == 12 || 后台还款记录 == 13 || 后台还款记录 == 14</t>
+  </si>
+  <si>
     <t>后台还款记录 == 15 || 后台还款记录 == 7</t>
   </si>
   <si>
     <t>决策树A[e]</t>
   </si>
   <si>
+    <t>禁止项[e] &gt; 0</t>
+  </si>
+  <si>
+    <t>最大授信额度 &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 最大授信额度 &gt; 0</t>
+  </si>
+  <si>
+    <t>最大授信额度 &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 最大授信额度 == -1</t>
+  </si>
+  <si>
+    <t>最大授信额度 &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 1</t>
+  </si>
+  <si>
+    <t>最大授信额度 &gt;= 用户借款总金额 &amp;&amp; 用户是否是老用户 == 1</t>
+  </si>
+  <si>
+    <t>最大授信额度 &gt;= 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0  &amp;&amp;  用户借款总金额 &gt;= 200 &amp;&amp; 反欺诈[e]&gt;7</t>
+  </si>
+  <si>
+    <t>最大授信额度&gt;=用户借款总金额 &amp;&amp; 用户是否是老用户==0 &amp;&amp; 用户借款总金额&gt;=200 &amp;&amp; 反欺诈[e]&lt;=6</t>
+  </si>
+  <si>
+    <t>最大授信额度&gt;=用户借款总金额 &amp;&amp; 用户是否是老用户==0 &amp;&amp; 用户借款总金额&gt;=200 &amp;&amp; 反欺诈[e] &gt;6  &amp;&amp; 反欺诈[e] &lt;=7</t>
+  </si>
+  <si>
     <t>准入原则</t>
   </si>
   <si>
+    <t>当前进行中的借款数量 &gt;= 2</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 1 &amp;&amp; 催收建议 == 0</t>
+  </si>
+  <si>
+    <t>逾期天数 &gt;= 10</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; (年龄（身份证） &lt; 18 || 年龄（身份证） &gt;35) &amp;&amp; 用户来源!=43</t>
+  </si>
+  <si>
+    <t>用户来源 == 43 &amp;&amp; (年龄（身份证）&lt;18 || 年龄（身份证） &gt;55)</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 判断通讯录手机号数量 &lt;= 20 &amp;&amp; 获取融360订单类型 != 1</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 互通过电话的号码数量检验 &lt;= 20 &amp;&amp; 获取融360订单类型 == 1</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 实名认证规则 == 2</t>
+  </si>
+  <si>
+    <t>关机情况检验 &gt; 5</t>
+  </si>
+  <si>
+    <t>宜信借款信息 == 1 || 宜信借款信息 == 2</t>
+  </si>
+  <si>
+    <t>后台还款记录 == 15</t>
+  </si>
+  <si>
+    <t>互通过电话的号码数量检验 &lt; 5</t>
+  </si>
+  <si>
+    <t>月均话费 &lt; 10 &amp;&amp; 用户来源 != 43</t>
+  </si>
+  <si>
+    <t>人脸识别分 &gt; 0 &amp;&amp; 人脸识别分 &lt; 50</t>
+  </si>
+  <si>
+    <t>第二联系人通话次数 &lt;= 0 &amp;&amp; 第一联系人通话次数 &lt;= 0</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 身份证照片数量 &lt; 3</t>
+  </si>
+  <si>
+    <t>订单来源 == 4 &amp;&amp; 用户来源 != 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(用户来源 == 37 || 用户来源 == 39 || 用户来源 == 40) &amp;&amp; (订单来源 == 0 || 订单来源 == 1) </t>
+  </si>
+  <si>
+    <t>(用户来源 == 5 || 用户来源 == 21) &amp;&amp; (订单来源 == 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7天内不正常还款 &gt;= 2</t>
+  </si>
+  <si>
     <t>订单来源 == 2 || 订单来源 == 3</t>
   </si>
   <si>
     <t>信用额度</t>
   </si>
   <si>
+    <t>信用评分[e]  &lt; 10</t>
+  </si>
+  <si>
     <t>信用评分[e] &gt;= 30</t>
   </si>
   <si>
     <t>决策树B[e]</t>
   </si>
   <si>
+    <t>决策树A[e] == 1 &amp;&amp; 准入原则 == 1 &amp;&amp; 人脸识别 != 0</t>
+  </si>
+  <si>
+    <t>决策树A[e] == 2 &amp;&amp; 准入原则 == 1</t>
+  </si>
+  <si>
+    <t>决策树A[e] == 1 &amp;&amp; 准入原则 == 1 &amp;&amp; 人脸识别 == 0</t>
+  </si>
+  <si>
+    <t>决策树A[e] == 1 &amp;&amp;准入原则 != 1</t>
+  </si>
+  <si>
+    <t>决策树A[e] == 2  &amp;&amp; 准入原则 != 1</t>
+  </si>
+  <si>
     <t>拒单机构占比-历史记录</t>
   </si>
   <si>
+    <t>91拒单机构占比&gt;=0.5 &amp;&amp; 91拒单机构占比 &lt;= 1</t>
+  </si>
+  <si>
+    <t>91拒单机构占比 &gt;= 0.3 &amp;&amp; 91拒单机构占比 &lt;= 0.5</t>
+  </si>
+  <si>
+    <t>91拒单机构占比 &gt;= 0.1 &amp;&amp; 91拒单机构占比 &lt;= 0.3</t>
+  </si>
+  <si>
     <t>91拒单机构占比 &gt;= 0 &amp;&amp; 91拒单机构占比 &lt;= 0.1</t>
   </si>
   <si>
     <t>拒绝短信文案</t>
   </si>
   <si>
+    <t>用户借款额度 &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 用户借款额度 &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用户借款额度 &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 用户借款额度 == -1</t>
+  </si>
+  <si>
+    <t>用户借款额度 &gt;= 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 用户借款总金额 &gt;= 1000 &amp;&amp; 反欺诈[e]&gt;7</t>
+  </si>
+  <si>
+    <t>决策树A[e]==1  &amp;&amp; 用户是否是老用户 == 1 &amp;&amp; 催收建议 == 0</t>
+  </si>
+  <si>
+    <t>决策树A[e]==1 &amp;&amp;用户是否是老用户 == 1 &amp;&amp; 逾期天数 &gt;= 10</t>
+  </si>
+  <si>
+    <t>决策树A[e]==1 &amp;&amp;用户是否是老用户 == 0 &amp;&amp; (年龄（身份证） &lt; 18 || 年龄（身份证） &gt;35)</t>
+  </si>
+  <si>
+    <t>决策树A[e]==1 &amp;&amp;用户是否是老用户 == 0 &amp;&amp; 判断通讯录手机号数量 &lt;= 20</t>
+  </si>
+  <si>
+    <t>决策树A[e]==1 &amp;&amp;用户是否是老用户 == 0 &amp;&amp; 身份证照片数量 &lt; 3 &amp;&amp; 姓名</t>
+  </si>
+  <si>
     <t>决策树A[e]==1 &amp;&amp;用户是否是老用户 == 0 &amp;&amp; 实名认证规则 == 2</t>
   </si>
   <si>
@@ -334,18 +718,45 @@
     <t>机审免征信通过规则</t>
   </si>
   <si>
+    <t>用户是否是老用户 == 1 &amp;&amp; 逾期天数 == 0</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0&amp;&amp; 催收建议 ==2 &amp;&amp; 逾期天数&lt;=3</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 1 &amp;&amp; 催收建议 ==1</t>
+  </si>
+  <si>
     <t>用户是否是老用户 == 1 &amp;&amp; 催收建议 ==2 &amp;&amp; 逾期天数&gt;3</t>
   </si>
   <si>
     <t>直接联系人申请人数[e]</t>
   </si>
   <si>
+    <t>直接联系人申请人数 &gt;= 0 &amp;&amp; 直接联系人申请人数 &lt;= 2</t>
+  </si>
+  <si>
     <t>直接联系人申请人数 &gt;= 3 &amp;&amp; 直接联系人申请人数 &lt;= 4</t>
   </si>
   <si>
     <t>机审提额拒绝规则</t>
   </si>
   <si>
+    <t>实名时间限制规则&lt;=6</t>
+  </si>
+  <si>
+    <t>判断通讯录手机号数量&lt;=30</t>
+  </si>
+  <si>
+    <t>关机情况检验&gt;=5</t>
+  </si>
+  <si>
+    <t>连续关机天数[e]==0</t>
+  </si>
+  <si>
+    <t>反欺诈[e]&gt;=20</t>
+  </si>
+  <si>
     <t>禁止项[e]==1</t>
   </si>
   <si>
@@ -355,111 +766,252 @@
     <t>决策树C</t>
   </si>
   <si>
+    <t>用户是否是老用户 ==1&amp;&amp; 催收建议 ==2 &amp;&amp; 逾期天数&lt;=3</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 1 &amp;&amp; 催收建议 ==0</t>
+  </si>
+  <si>
     <t>老用户决策树A</t>
   </si>
   <si>
-    <t>用户是否是老用户 ==1&amp;&amp; 催收建议 ==2 &amp;&amp; 逾期天数&lt;=3</t>
+    <t>用户是否是老用户 == 1 &amp;&amp; 催收建议 ==2 &amp;&amp; 逾期天数&gt;10</t>
   </si>
   <si>
     <t>金卡资格</t>
   </si>
   <si>
+    <t>金卡准入规则 == 1</t>
+  </si>
+  <si>
     <t>授信额度</t>
   </si>
   <si>
     <t>每月收入金额 （工资收入）</t>
   </si>
   <si>
+    <t>每月收入金额 &gt;= 3000 &amp;&amp; 每月收入金额 &lt; 5000</t>
+  </si>
+  <si>
+    <t>每月收入金额 &gt;= 5000 &amp;&amp; 每月收入金额 &lt; 8000</t>
+  </si>
+  <si>
+    <t>每月收入金额 &gt;= 8000 &amp;&amp; 每月收入金额 &lt; 15000</t>
+  </si>
+  <si>
     <t>每月收入金额 &gt;= 15000</t>
   </si>
   <si>
     <t>近12个月收支情况 额度</t>
   </si>
   <si>
+    <t>最近12个月收支差 &lt;= 1000</t>
+  </si>
+  <si>
+    <t>最近12个月收支差 &gt; 1000 &amp;&amp; 最近12个月收支差 &lt;= 2000</t>
+  </si>
+  <si>
+    <t>最近12个月收支差 &gt; 2000 &amp;&amp; 最近12个月收支差 &lt;= 3000</t>
+  </si>
+  <si>
     <t>最近12个月收支差 &gt; 3000</t>
   </si>
   <si>
     <t>固定支出金额 额度</t>
   </si>
   <si>
+    <t>每月固定支出金额  &gt; 500 &amp;&amp; 每月固定支出金额 &lt;= 1000</t>
+  </si>
+  <si>
+    <t>每月固定支出金额 &gt; 1000 &amp;&amp; 每月固定支出金额 &lt;= 2000</t>
+  </si>
+  <si>
     <t>每月固定支出金额 &gt; 2000</t>
   </si>
   <si>
     <t>固定收入金额</t>
   </si>
   <si>
+    <t>每月固定收入金额 &gt; 1000 &amp;&amp; 每月固定收入金额 &lt; 3000</t>
+  </si>
+  <si>
+    <t>每月固定收入金额 &gt;= 3000 &amp;&amp; 每月固定收入金额 &lt; 5000</t>
+  </si>
+  <si>
     <t>每月固定收入金额 &gt;= 5000</t>
   </si>
   <si>
     <t>利息交易 额度</t>
   </si>
   <si>
+    <t>每月利息交易 &gt; 0 &amp;&amp; 每月利息交易 &lt;= 5</t>
+  </si>
+  <si>
+    <t>每月利息交易 &gt; 5 &amp;&amp; 每月利息交易 &lt;= 10</t>
+  </si>
+  <si>
+    <t>每月利息交易 &gt; 10 &amp;&amp; 每月利息交易 &lt;= 30</t>
+  </si>
+  <si>
     <t>每月利息交易 &gt; 30</t>
   </si>
   <si>
     <t>芝麻分额度</t>
   </si>
   <si>
+    <t>芝麻分 &lt; 550</t>
+  </si>
+  <si>
+    <t>芝麻分 &lt; 600</t>
+  </si>
+  <si>
+    <t>芝麻分 &lt; 650</t>
+  </si>
+  <si>
+    <t>芝麻分 &lt; 700</t>
+  </si>
+  <si>
     <t>芝麻分 &gt;= 700</t>
   </si>
   <si>
     <t>花呗额度</t>
   </si>
   <si>
+    <t>支付宝花呗额度 &lt; 500</t>
+  </si>
+  <si>
+    <t>支付宝花呗额度 &gt;= 500 &amp;&amp; 支付宝花呗额度 &lt; 750</t>
+  </si>
+  <si>
+    <t>支付宝花呗额度 &gt;= 750 &amp;&amp; 支付宝花呗额度 &lt; 1000</t>
+  </si>
+  <si>
+    <t>支付宝花呗额度 &lt; 1500</t>
+  </si>
+  <si>
+    <t>支付宝花呗额度 &lt; 2000</t>
+  </si>
+  <si>
+    <t>支付宝花呗额度 &lt; 2500</t>
+  </si>
+  <si>
     <t>支付宝花呗额度 &gt;= 2500</t>
   </si>
   <si>
     <t>手机实名时间额度</t>
   </si>
   <si>
+    <t>实名时间限制规则 &lt; 6</t>
+  </si>
+  <si>
+    <t>实名时间限制规则 &lt; 12</t>
+  </si>
+  <si>
+    <t>实名时间限制规则 &lt; 24</t>
+  </si>
+  <si>
+    <t>实名时间限制规则 &lt; 36</t>
+  </si>
+  <si>
+    <t>实名时间限制规则 &lt; 60</t>
+  </si>
+  <si>
     <t>实名时间限制规则 &gt;= 60</t>
   </si>
   <si>
     <t>第一联系人最晚沟通时间额度</t>
   </si>
   <si>
-    <t>第一联系人最晚沟通时间 &gt;= 30 &amp;&amp; 第一联系人最晚沟通时间 &lt;= 90</t>
+    <t>第一联系人最晚沟通时间 &gt; 0 &amp;&amp; 第一联系人最晚沟通时间 &lt; 30</t>
   </si>
   <si>
     <t>通讯录有效号码数量额度</t>
   </si>
   <si>
+    <t>判断通讯录手机号数量 &gt;=30 &amp;&amp; 判断通讯录手机号数量&lt;50</t>
+  </si>
+  <si>
+    <t>判断通讯录手机号数量&gt;=50 &amp;&amp; 判断通讯录手机号数量&lt;150</t>
+  </si>
+  <si>
     <t>判断通讯录手机号数量&gt;=150 &amp;&amp; 行为记录[e]&lt;300</t>
   </si>
   <si>
     <t>近6个月话费平均使用情况额度</t>
   </si>
   <si>
+    <t>月均话费 &lt; 50</t>
+  </si>
+  <si>
+    <t>月均话费 &lt; 100</t>
+  </si>
+  <si>
+    <t>月均话费 &lt; 200</t>
+  </si>
+  <si>
     <t>月均话费 &gt;= 200</t>
   </si>
   <si>
     <t>第一联系人通话时间排名额度</t>
   </si>
   <si>
+    <t>第一联系人通话排名 &gt; 0 &amp;&amp; 第一联系人通话排名 &lt;= 5</t>
+  </si>
+  <si>
+    <t>第一联系人通话排名 &gt; 5 &amp;&amp; 第一联系人通话排名 &lt;= 20</t>
+  </si>
+  <si>
     <t>第一联系人通话排名 &gt; 20 &amp;&amp; 第一联系人通话排名 &lt;= 50</t>
   </si>
   <si>
     <t>总额度策略</t>
   </si>
   <si>
+    <t>( 金卡授信策略 + 白卡额度策略 + ((金卡准入规则 == 1 ) ? 1500 : 0 ) ) &lt; 1000</t>
+  </si>
+  <si>
+    <t>( 金卡授信策略 + 白卡额度策略 +  ((金卡准入规则 == 1 ) ? 1500 : 0 ) ) &gt;3000</t>
+  </si>
+  <si>
     <t>( 金卡授信策略 + 白卡额度策略 +  ((金卡准入规则 == 1 ) ? 1500 : 0 ) ) &gt;= 1000 &amp;&amp; ( 金卡授信策略 + 白卡额度策略 +  ((金卡准入规则 == 1 ) ? 1500 : 0 ) ) &lt;= 3000</t>
   </si>
   <si>
     <t>金卡准入规则</t>
   </si>
   <si>
+    <t>(学历 ==1 || 学历 ==2 || 学历 ==3) &amp;&amp; 实名时间限制规则&gt;=18 &amp;&amp; 信用卡==1 &amp;&amp; 互通过电话的号码数量检验&gt;=50 &amp;&amp; 芝麻分&gt;=680 &amp;&amp; 宜信借款逾期!=1 &amp;&amp; 芝麻历史逾期情况!=1 &amp;&amp; 91逾期!=1 &amp;&amp; 芝麻信用行业关注名单逾期未处理!=1 &amp;&amp; 禁止项[e]==0 &amp;&amp; 后台黑名单 !=1&amp;&amp; 是否账常态高额度用卡 !=1 &amp;&amp;是否账单波动过大 !=1 &amp;&amp; 是否频繁取现 !=1 &amp;&amp; 是否还款能力不足 !=1&amp;&amp; 是否是严重逾期用户 !=1 &amp;&amp; 是否是轻微逾期用户 !=1 &amp;&amp; 是否网络套现 !=1 &amp;&amp; 是否POS套现 !=1 &amp;&amp; 人脸识别==1</t>
+  </si>
+  <si>
+    <t>实名时间限制规则&gt;=18 &amp;&amp; 芝麻分&gt;=650 &amp;&amp; 互通过电话的号码数量检验&gt;=50&amp;&amp; 禁止项[e] == 0 &amp;&amp; 是否每个月话费100元以上 ==1</t>
+  </si>
+  <si>
     <t>是否是商旅用户 == 1 &amp;&amp; 是否是海外购物用户 == 1 &amp;&amp; 是否是网购用户== 1 &amp;&amp; 是否账常态高额度用卡== 0 &amp;&amp;是否账单波动过大== 0 &amp;&amp;是否频繁取现== 0 &amp;&amp;是否还款能力不足== 0 &amp;&amp;是否是严重逾期用户== 0 &amp;&amp;是否是轻微逾期用户== 0 &amp;&amp; 是否网络套现== 0 &amp;&amp; 是否POS套现== 0</t>
   </si>
   <si>
     <t>最大授信额度</t>
   </si>
   <si>
+    <t>用户来源 != 43</t>
+  </si>
+  <si>
     <t>用户来源 == 43</t>
   </si>
   <si>
     <t>节假日决策</t>
   </si>
   <si>
+    <t>实名时间限制规则&lt;3</t>
+  </si>
+  <si>
+    <t>(第一联系人通话排名 == -1 &amp;&amp; 第二联系人通话排名 == -1)</t>
+  </si>
+  <si>
+    <t>芝麻历史逾期情况&gt;=2</t>
+  </si>
+  <si>
+    <t>通讯录有效号码数量&lt;20</t>
+  </si>
+  <si>
     <t>历史最大逾期天数&gt;5</t>
   </si>
   <si>
@@ -469,18 +1021,36 @@
     <t>模拟人工审核</t>
   </si>
   <si>
+    <t xml:space="preserve">信用白条白名单 == 1 </t>
+  </si>
+  <si>
+    <t>新订单来源 == 5 &amp;&amp; 信用白条白名单 !=1 &amp;&amp; 用户是否是老用户 == 0</t>
+  </si>
+  <si>
     <t>节假日决策 == 0</t>
   </si>
   <si>
     <t>51公积金用户额度</t>
   </si>
   <si>
+    <t>51公积金月缴额&gt;0 &amp;&amp; 51公积金稳定性== 1 &amp;&amp; 是否为白名单== 1</t>
+  </si>
+  <si>
+    <t>51公积金月缴额&gt;0 &amp;&amp; 51公积金稳定性== 2 &amp;&amp; 是否为白名单== 1</t>
+  </si>
+  <si>
     <t>51公积金月缴额&gt;0 &amp;&amp; 51公积金稳定性== 3 &amp;&amp; 是否为白名单== 1</t>
   </si>
   <si>
     <t>51公积金用户额度取整</t>
   </si>
   <si>
+    <t>51公积金月缴额&lt;1000</t>
+  </si>
+  <si>
+    <t>51公积金月缴额 &gt; 5000</t>
+  </si>
+  <si>
     <t>51公积金月缴额 &gt;= 1000 &amp;&amp; 51公积金月缴额 &lt;=5000</t>
   </si>
   <si>
@@ -490,6 +1060,45 @@
     <t>直接拒绝扩展</t>
   </si>
   <si>
+    <t>实名时间限制规则 &lt;  3</t>
+  </si>
+  <si>
+    <t>关机情况检验 &gt; 10</t>
+  </si>
+  <si>
+    <t>第一联系人通话次数 == 0 &amp;&amp; 第二联系人通话次数 == 0</t>
+  </si>
+  <si>
+    <t>互通过电话的号码数量检验 &lt; 20</t>
+  </si>
+  <si>
+    <t>判断通讯录手机号数量 &lt; 20</t>
+  </si>
+  <si>
+    <t>通讯录有效号码数量 &lt; 5</t>
+  </si>
+  <si>
+    <t>7天内身份证关联设备数 &gt; 3</t>
+  </si>
+  <si>
+    <t>(用户是否是老用户 == 1) &amp;&amp; (历史最大逾期天数 &gt; 10)</t>
+  </si>
+  <si>
+    <t>连续关机三天以上次数 &gt; 2</t>
+  </si>
+  <si>
+    <t>(关机情况检验 &gt; 3) &amp;&amp; (第一联系人通话次数 == 0)</t>
+  </si>
+  <si>
+    <t>(关机情况检验 &gt; 3) &amp;&amp; (通讯录有效号码数量 &lt; 5)</t>
+  </si>
+  <si>
+    <t>芝麻历史逾期情况 &gt;= 10</t>
+  </si>
+  <si>
+    <t>芝麻历史逾期次数 &gt;= 5</t>
+  </si>
+  <si>
     <t>通讯录贷款号码数量 &gt; 5</t>
   </si>
   <si>
@@ -520,6 +1129,21 @@
     <t>调试决策结果</t>
   </si>
   <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 直接拒绝扩展 == 1</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 直接通过扩展 == 1</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 0 &amp;&amp; 直接通过扩展 == 0</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 1 &amp;&amp; (关机情况检验 &gt; 10 || (上笔订单逾期天数 &gt; 7 &amp;&amp; (借款总次数 == 1 || (第一联系人通话次数 == 0 &amp;&amp; 第二联系人通话次数 == 0) || 芝麻历史逾期情况 &gt;= 10 || 芝麻历史逾期次数 &gt; 5)))</t>
+  </si>
+  <si>
+    <t>用户是否是老用户 == 1</t>
+  </si>
+  <si>
     <t>调试决策树</t>
   </si>
   <si>
@@ -532,12 +1156,24 @@
     <t>总额度策略(copy316 =&gt; 348)</t>
   </si>
   <si>
+    <t>( 金卡授信策略(copy306 =&gt; 349) + 白卡额度策略(copy315 =&gt; 350) + ((金卡准入规则(copy317 =&gt; 351) == 1 ) ? 1500 : 0 ) ) &lt; 1000</t>
+  </si>
+  <si>
+    <t>( 金卡授信策略(copy306 =&gt; 349) + 白卡额度策略(copy315 =&gt; 350) +  ((金卡准入规则(copy317 =&gt; 351) == 1 ) ? 1500 : 0 ) ) &gt;3000</t>
+  </si>
+  <si>
     <t>( 金卡授信策略(copy306 =&gt; 349) + 白卡额度策略(copy315 =&gt; 350) +  ((金卡准入规则(copy317 =&gt; 351) == 1 ) ? 1500 : 0 ) ) &gt;= 1000 &amp;&amp; ( 金卡授信策略(copy306 =&gt; 349) + 白卡额度策略(copy315 =&gt; 350) +  ((金卡准入规则(copy317 =&gt; 351) == 1 ) ? 1500 : 0 ) ) &lt;= 3000</t>
   </si>
   <si>
     <t>白卡额度策略(copy315 =&gt; 350)</t>
   </si>
   <si>
+    <t>round(( 芝麻分额度(copy307 =&gt; 354) + 花呗额度(copy308 =&gt; 355) + 手机实名时间额度(copy309 =&gt; 356) + 第一联系人最晚沟通时间额度(copy310 =&gt; 357) + 通讯录有效号码数量额度(copy311 =&gt; 358) + 近6个月话费平均使用情况额度(copy312 =&gt; 359) + 第一联系人通话时间排名额度(copy313 =&gt; 360))/100)*100 &lt; 1000</t>
+  </si>
+  <si>
+    <t>(round(( 芝麻分额度(copy307 =&gt; 354) + 花呗额度(copy308 =&gt; 355) + 手机实名时间额度(copy309 =&gt; 356) + 第一联系人最晚沟通时间额度(copy310 =&gt; 357) + 通讯录有效号码数量额度(copy311 =&gt; 358) + 近6个月话费平均使用情况额度(copy312 =&gt; 359) + 第一联系人通话时间排名额度(copy313 =&gt; 360))/100)*100) &gt;= 500 &amp;&amp; (round(( 芝麻分额度(copy307 =&gt; 354) + 花呗额度(copy308 =&gt; 355) + 手机实名时间额度(copy309 =&gt; 356) + 第一联系人最晚沟通时间额度(copy310 =&gt; 357) + 通讯录有效号码数量额度(copy311 =&gt; 358) + 近6个月话费平均使用情况额度(copy312 =&gt; 359) + 第一联系人通话时间排名额度(copy313 =&gt; 360))/100)*100) &lt; 1000</t>
+  </si>
+  <si>
     <t>round(( 芝麻分额度(copy307 =&gt; 354) + 花呗额度(copy308 =&gt; 355) + 手机实名时间额度(copy309 =&gt; 356) + 第一联系人最晚沟通时间额度(copy310 =&gt; 357) + 通讯录有效号码数量额度(copy311 =&gt; 358) + 近6个月话费平均使用情况额度(copy312 =&gt; 359) + 第一联系人通话时间排名额度(copy313 =&gt; 360))/100)*100 &gt;= 1000</t>
   </si>
   <si>
@@ -604,7 +1240,7 @@
     <t>黑中介分[e](copy140 =&gt; 378)</t>
   </si>
   <si>
-    <t>蜜罐黑中介分 &gt;= 0 &amp;&amp; 蜜罐黑中介分 &lt;=5</t>
+    <t>蜜罐黑中介分&gt;10 &amp;&amp; 蜜罐黑中介分&lt;=100</t>
   </si>
   <si>
     <t>贷款类号码主叫个数[e](copy145 =&gt; 380)</t>
@@ -637,24 +1273,60 @@
     <t>信用白条风控决策树</t>
   </si>
   <si>
+    <t>信用白条白名单 == 1 &amp;&amp; (决策树B != 1 &amp;&amp; 决策树B != 2  &amp;&amp; 人脸识别 ==1 &amp;&amp; 白条准入原则 == 1 &amp;&amp; 信用白条禁止项 == 0)</t>
+  </si>
+  <si>
+    <t>新订单来源 == 5 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 决策树B == 1</t>
+  </si>
+  <si>
     <t>最大授信额度(copy319 =&gt; 391)</t>
   </si>
   <si>
+    <t xml:space="preserve">(基础额度策略 + 公积金数据提额 + 用户还款所增加的额度)  &gt; 用户借款额度(copy210 =&gt; 395) &amp;&amp; 用户借款额度(copy210 =&gt; 395) &gt; 0 </t>
+  </si>
+  <si>
     <t>(基础额度策略 + 公积金数据提额 + 用户还款所增加的额度) &lt;= 用户借款额度(copy210 =&gt; 395)</t>
   </si>
   <si>
     <t>拒绝短信文案(copy214 =&gt; 392)</t>
   </si>
   <si>
+    <t>信用白条禁止项 &gt; 0</t>
+  </si>
+  <si>
     <t>决策树A[e](copy202 =&gt; 398)==1 &amp;&amp;用户是否是老用户 == 0 &amp;&amp; 身份证照片数量 &lt; 3 &amp;&amp; 姓名</t>
   </si>
   <si>
     <t>决策树B</t>
   </si>
   <si>
+    <t>决策树A[e](copy202 =&gt; 398) == 1 &amp;&amp; 白条准入原则 == 1 &amp;&amp; 人脸识别 == 1</t>
+  </si>
+  <si>
+    <t>决策树A[e](copy202 =&gt; 398) == 2 &amp;&amp; 白条准入原则 == 1</t>
+  </si>
+  <si>
+    <t>决策树A[e](copy202 =&gt; 398) == 1 &amp;&amp; 白条准入原则 == 1 &amp;&amp; 人脸识别 &lt;= 0</t>
+  </si>
+  <si>
+    <t>决策树A[e](copy202 =&gt; 398) == 1 &amp;&amp;白条准入原则 != 1</t>
+  </si>
+  <si>
+    <t>决策树A[e](copy202 =&gt; 398) == 2  &amp;&amp; 白条准入原则 != 1</t>
+  </si>
+  <si>
+    <t>公积金数据决策 == 1 &amp;&amp; 白条准入原则 == 1</t>
+  </si>
+  <si>
     <t>基础额度策略</t>
   </si>
   <si>
+    <t xml:space="preserve"> 白卡额度策略(copy315 =&gt; 350)  &lt; 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白卡额度策略(copy315 =&gt; 350) &gt; 3000 </t>
+  </si>
+  <si>
     <t>白卡额度策略(copy315 =&gt; 350) &gt;= 1000 &amp;&amp; 白卡额度策略(copy315 =&gt; 350) &lt;= 3000</t>
   </si>
   <si>
@@ -664,15 +1336,99 @@
     <t>信用白条禁止项</t>
   </si>
   <si>
-    <t>同盾身份证网贷黑名单 == 2</t>
+    <t>信用白条黑名单 == 1</t>
+  </si>
+  <si>
+    <t>极速钱包黑名单 == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百融特殊名单 == 2 </t>
   </si>
   <si>
     <t>决策树A[e](copy202 =&gt; 398)</t>
   </si>
   <si>
+    <t>最大授信额度(copy319 =&gt; 391) &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 最大授信额度(copy319 =&gt; 391) &gt; 0</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391) &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 最大授信额度(copy319 =&gt; 391) == -1</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391) &lt; 用户借款总金额 &amp;&amp; 用户是否是老用户 == 1</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391) &gt;= 用户借款总金额 &amp;&amp; 用户是否是老用户 == 1</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391) &gt;= 用户借款总金额 &amp;&amp; 用户是否是老用户 == 0  &amp;&amp;  用户借款总金额 &gt;= 200 &amp;&amp; 反欺诈[e](copy164 =&gt; 404) &gt; 7</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391)&gt;=用户借款总金额 &amp;&amp; 用户是否是老用户==0 &amp;&amp; 用户借款总金额&gt;=200 &amp;&amp; 反欺诈[e](copy164 =&gt; 404)&lt;=6.5</t>
+  </si>
+  <si>
+    <t>最大授信额度(copy319 =&gt; 391)&gt;=用户借款总金额 &amp;&amp; 用户是否是老用户==0 &amp;&amp; 用户借款总金额&gt;=200 &amp;&amp; 反欺诈[e](copy164 =&gt; 404) &gt;6.5  &amp;&amp; 反欺诈[e](copy164 =&gt; 404) &lt;=7</t>
+  </si>
+  <si>
     <t>白条准入原则</t>
   </si>
   <si>
+    <t>实名时间限制规则 &lt;= 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户是否是老用户 == 0 &amp;&amp; (年龄（身份证） &lt; 20 || 年龄（身份证） &gt; 37) </t>
+  </si>
+  <si>
+    <t>新订单来源 == 1 &amp;&amp; 用户是否是老用户 == 0 &amp;&amp; 判断通讯录手机号数量 &lt;= 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户是否是老用户 == 0 &amp;&amp; 互通过电话的号码数量检验 &lt;= 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">月均话费 &lt; 10 </t>
+  </si>
+  <si>
+    <t>第二联系人通话次数 &lt;= 0 &amp;&amp; 第一联系人通话次数 &lt;= 0 &amp;&amp; 关机情况检验 &gt; 5</t>
+  </si>
+  <si>
+    <t>第一联系人通话排名 == -1 &amp;&amp; 第二联系人通话排名 == -1</t>
+  </si>
+  <si>
+    <t>通讯录有效号码数量 &lt; 20</t>
+  </si>
+  <si>
+    <t>历史最大逾期天数 &gt; 10</t>
+  </si>
+  <si>
+    <t>1个月内身份证使用过多设备进行申请 &gt; 4</t>
+  </si>
+  <si>
+    <t>7天内设备使用过多的身份证或手机号进行申请 &gt; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7天内身份证关联设备数 &gt; 4 </t>
+  </si>
+  <si>
+    <t>蜜罐黑中介分 &lt; 10</t>
+  </si>
+  <si>
+    <t>设备曾用手机号 &gt;=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册号码、第一联系人、第二联系人是否相同 == 1 </t>
+  </si>
+  <si>
+    <t>身份证号码长度 &lt; 18</t>
+  </si>
+  <si>
+    <t>身份证扫描识别是否欺诈 == 1</t>
+  </si>
+  <si>
+    <t>芝麻IVS分 &gt; 0 &amp;&amp; 芝麻IVS分 &lt;=30</t>
+  </si>
+  <si>
+    <t>芝麻分 &gt; 0 &amp;&amp; 芝麻分 &lt; 550</t>
+  </si>
+  <si>
     <t>秒还卡订单过滤&lt;1</t>
   </si>
   <si>
@@ -685,6 +1441,9 @@
     <t>信用额度(copy209 =&gt; 403)</t>
   </si>
   <si>
+    <t>信用评分[e](copy166 =&gt; 414)  &lt; 10</t>
+  </si>
+  <si>
     <t>信用评分[e](copy166 =&gt; 414) &gt;= 30</t>
   </si>
   <si>
@@ -862,12 +1621,18 @@
     <t>百融7天内多平台借贷总数[e]</t>
   </si>
   <si>
+    <t>百融多次申请核查V2(近一周) &lt; 3</t>
+  </si>
+  <si>
     <t>百融多次申请核查V2(近一周) &lt; 7</t>
   </si>
   <si>
     <t>百融1个月内多平台借贷总数[e]</t>
   </si>
   <si>
+    <t>百融多次申请核查V2(近一个月) &lt; 6</t>
+  </si>
+  <si>
     <t>百融多次申请核查V2(近一个月) &lt; 12</t>
   </si>
   <si>
@@ -895,12 +1660,42 @@
     <t>记账规则评分</t>
   </si>
   <si>
+    <t>口袋记账连续记账月份规则 &gt;= 0 &amp;&amp; 口袋记账连续记账月份规则 &lt;= 1</t>
+  </si>
+  <si>
+    <t>口袋记账连续记账月份规则 &gt;=1 &amp;&amp; 口袋记账连续记账月份规则 &lt;=3</t>
+  </si>
+  <si>
+    <t>口袋记账连续记账月份规则 &gt;=4 &amp;&amp; 口袋记账连续记账月份规则 &lt;=6</t>
+  </si>
+  <si>
+    <t>口袋记账连续记账月份规则 &gt;=7 &amp;&amp; 口袋记账连续记账月份规则 &lt;=12</t>
+  </si>
+  <si>
+    <t>口袋记账连续记账月份规则 &gt;=12</t>
+  </si>
+  <si>
     <t>口袋记账连续记账月份规则 == -1</t>
   </si>
   <si>
     <t>记账数据提额</t>
   </si>
   <si>
+    <t>记账规则评分	 == 0</t>
+  </si>
+  <si>
+    <t>记账规则评分	 == 1</t>
+  </si>
+  <si>
+    <t>记账规则评分	 == 2</t>
+  </si>
+  <si>
+    <t>记账规则评分	 == 3</t>
+  </si>
+  <si>
+    <t>记账规则评分	 == 4</t>
+  </si>
+  <si>
     <t>记账规则评分	 == -1</t>
   </si>
   <si>
@@ -908,6 +1703,51 @@
   </si>
   <si>
     <t>公积金数据提额</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &lt; 9</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 9 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 100 &amp;&amp; 公积金数据-最近一年缴纳平均金额  &gt;= 50</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 9 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 100 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 200</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 9 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 200 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 300</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 9 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 300 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 400</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;=  10 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 400 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 500</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 10 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 500 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 600</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 10 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 600 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 700</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 700 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 800</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 800 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 1000</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 1000 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 1200</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 1200 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 1400</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 1400 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 1600</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 1600 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 1800</t>
+  </si>
+  <si>
+    <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 1800 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &lt; 2000</t>
   </si>
   <si>
     <t>公积金数据-最近一年缴纳月数 &gt;= 11 &amp;&amp; 公积金数据-最近一年缴纳平均金额 &gt;= 2000</t>
@@ -1262,16 +2102,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="254" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,1066 +2138,1066 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>316</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>329</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>344</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>354</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
         <v>136</v>
@@ -2365,10 +3205,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
         <v>138</v>
@@ -2376,1107 +3216,6651 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>361</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>364</v>
+        <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>376</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>377</v>
+        <v>189</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>381</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>383</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>385</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>390</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>391</v>
+        <v>197</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>392</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>396</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>397</v>
+        <v>199</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C127" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>408</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>410</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>411</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C135" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>413</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
-      </c>
-      <c r="C137" t="s">
-        <v>138</v>
+        <v>174</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C140" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>433</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>434</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>435</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>437</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>445</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>446</v>
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>447</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>449</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>452</v>
+        <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>453</v>
+        <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>454</v>
+        <v>208</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>458</v>
+        <v>209</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>460</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>461</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C162" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>464</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>465</v>
+        <v>212</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="C166" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>466</v>
+        <v>212</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
-      </c>
-      <c r="C167" t="s">
-        <v>66</v>
+        <v>208</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>467</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>468</v>
+        <v>213</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>469</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>470</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>471</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>472</v>
+        <v>214</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="C174" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>474</v>
+        <v>214</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>475</v>
+        <v>214</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C176" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>476</v>
+        <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>478</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>479</v>
+        <v>214</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>480</v>
+        <v>214</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>481</v>
+        <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>483</v>
+        <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C183" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>484</v>
+        <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="C184" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>487</v>
+        <v>223</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="C185" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>490</v>
+        <v>223</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C186" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>491</v>
+        <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="C187" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>494</v>
+        <v>225</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>495</v>
+        <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>496</v>
+        <v>258</v>
       </c>
       <c r="B190" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>497</v>
+        <v>258</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>498</v>
+        <v>258</v>
       </c>
       <c r="B192" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>499</v>
+        <v>258</v>
       </c>
       <c r="B193" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>602</v>
+        <v>258</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>603</v>
+        <v>260</v>
       </c>
       <c r="B196" t="s">
-        <v>292</v>
-      </c>
-      <c r="C196" t="s">
-        <v>293</v>
+        <v>246</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>604</v>
+        <v>260</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
-      </c>
-      <c r="C197" t="s">
-        <v>293</v>
+        <v>246</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>607</v>
+        <v>262</v>
       </c>
       <c r="B198" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>608</v>
+        <v>262</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
+        <v>262</v>
+      </c>
+      <c r="B200" t="s">
+        <v>247</v>
+      </c>
+      <c r="C200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>262</v>
+      </c>
+      <c r="B201" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>262</v>
+      </c>
+      <c r="B202" t="s">
+        <v>247</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>266</v>
+      </c>
+      <c r="B203" t="s">
+        <v>250</v>
+      </c>
+      <c r="C203" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>266</v>
+      </c>
+      <c r="B204" t="s">
+        <v>250</v>
+      </c>
+      <c r="C204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>266</v>
+      </c>
+      <c r="B205" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>266</v>
+      </c>
+      <c r="B206" t="s">
+        <v>250</v>
+      </c>
+      <c r="C206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>266</v>
+      </c>
+      <c r="B207" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>267</v>
+      </c>
+      <c r="B208" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>267</v>
+      </c>
+      <c r="B209" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>268</v>
+      </c>
+      <c r="B210" t="s">
+        <v>254</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>300</v>
+      </c>
+      <c r="B211" t="s">
+        <v>255</v>
+      </c>
+      <c r="C211" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>300</v>
+      </c>
+      <c r="B212" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>300</v>
+      </c>
+      <c r="B213" t="s">
+        <v>255</v>
+      </c>
+      <c r="C213" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>300</v>
+      </c>
+      <c r="B214" t="s">
+        <v>255</v>
+      </c>
+      <c r="C214" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>301</v>
+      </c>
+      <c r="B215" t="s">
+        <v>260</v>
+      </c>
+      <c r="C215" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>301</v>
+      </c>
+      <c r="B216" t="s">
+        <v>260</v>
+      </c>
+      <c r="C216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>301</v>
+      </c>
+      <c r="B217" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>301</v>
+      </c>
+      <c r="B218" t="s">
+        <v>260</v>
+      </c>
+      <c r="C218" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>302</v>
+      </c>
+      <c r="B219" t="s">
+        <v>265</v>
+      </c>
+      <c r="C219" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>302</v>
+      </c>
+      <c r="B220" t="s">
+        <v>265</v>
+      </c>
+      <c r="C220" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>302</v>
+      </c>
+      <c r="B221" t="s">
+        <v>265</v>
+      </c>
+      <c r="C221" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>303</v>
+      </c>
+      <c r="B222" t="s">
+        <v>269</v>
+      </c>
+      <c r="C222" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>303</v>
+      </c>
+      <c r="B223" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>303</v>
+      </c>
+      <c r="B224" t="s">
+        <v>269</v>
+      </c>
+      <c r="C224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>304</v>
+      </c>
+      <c r="B225" t="s">
+        <v>273</v>
+      </c>
+      <c r="C225" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>304</v>
+      </c>
+      <c r="B226" t="s">
+        <v>273</v>
+      </c>
+      <c r="C226" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>304</v>
+      </c>
+      <c r="B227" t="s">
+        <v>273</v>
+      </c>
+      <c r="C227" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>304</v>
+      </c>
+      <c r="B228" t="s">
+        <v>273</v>
+      </c>
+      <c r="C228" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>307</v>
+      </c>
+      <c r="B229" t="s">
+        <v>278</v>
+      </c>
+      <c r="C229" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>307</v>
+      </c>
+      <c r="B230" t="s">
+        <v>278</v>
+      </c>
+      <c r="C230" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>307</v>
+      </c>
+      <c r="B231" t="s">
+        <v>278</v>
+      </c>
+      <c r="C231" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>307</v>
+      </c>
+      <c r="B232" t="s">
+        <v>278</v>
+      </c>
+      <c r="C232" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>307</v>
+      </c>
+      <c r="B233" t="s">
+        <v>278</v>
+      </c>
+      <c r="C233" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>308</v>
+      </c>
+      <c r="B234" t="s">
+        <v>284</v>
+      </c>
+      <c r="C234" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>308</v>
+      </c>
+      <c r="B235" t="s">
+        <v>284</v>
+      </c>
+      <c r="C235" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>308</v>
+      </c>
+      <c r="B236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C236" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>308</v>
+      </c>
+      <c r="B237" t="s">
+        <v>284</v>
+      </c>
+      <c r="C237" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>308</v>
+      </c>
+      <c r="B238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C238" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>308</v>
+      </c>
+      <c r="B239" t="s">
+        <v>284</v>
+      </c>
+      <c r="C239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>308</v>
+      </c>
+      <c r="B240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C240" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>309</v>
+      </c>
+      <c r="B241" t="s">
+        <v>292</v>
+      </c>
+      <c r="C241" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>309</v>
+      </c>
+      <c r="B242" t="s">
+        <v>292</v>
+      </c>
+      <c r="C242" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>309</v>
+      </c>
+      <c r="B243" t="s">
+        <v>292</v>
+      </c>
+      <c r="C243" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>309</v>
+      </c>
+      <c r="B244" t="s">
+        <v>292</v>
+      </c>
+      <c r="C244" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>309</v>
+      </c>
+      <c r="B245" t="s">
+        <v>292</v>
+      </c>
+      <c r="C245" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>309</v>
+      </c>
+      <c r="B246" t="s">
+        <v>292</v>
+      </c>
+      <c r="C246" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>310</v>
+      </c>
+      <c r="B247" t="s">
+        <v>299</v>
+      </c>
+      <c r="C247" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>310</v>
+      </c>
+      <c r="B248" t="s">
+        <v>299</v>
+      </c>
+      <c r="C248" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>311</v>
+      </c>
+      <c r="B249" t="s">
+        <v>301</v>
+      </c>
+      <c r="C249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>311</v>
+      </c>
+      <c r="B250" t="s">
+        <v>301</v>
+      </c>
+      <c r="C250" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>311</v>
+      </c>
+      <c r="B251" t="s">
+        <v>301</v>
+      </c>
+      <c r="C251" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>312</v>
+      </c>
+      <c r="B252" t="s">
+        <v>305</v>
+      </c>
+      <c r="C252" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>312</v>
+      </c>
+      <c r="B253" t="s">
+        <v>305</v>
+      </c>
+      <c r="C253" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>312</v>
+      </c>
+      <c r="B254" t="s">
+        <v>305</v>
+      </c>
+      <c r="C254" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>312</v>
+      </c>
+      <c r="B255" t="s">
+        <v>305</v>
+      </c>
+      <c r="C255" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>313</v>
+      </c>
+      <c r="B256" t="s">
+        <v>310</v>
+      </c>
+      <c r="C256" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>313</v>
+      </c>
+      <c r="B257" t="s">
+        <v>310</v>
+      </c>
+      <c r="C257" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>313</v>
+      </c>
+      <c r="B258" t="s">
+        <v>310</v>
+      </c>
+      <c r="C258" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>316</v>
+      </c>
+      <c r="B259" t="s">
+        <v>314</v>
+      </c>
+      <c r="C259" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>316</v>
+      </c>
+      <c r="B260" t="s">
+        <v>314</v>
+      </c>
+      <c r="C260" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>316</v>
+      </c>
+      <c r="B261" t="s">
+        <v>314</v>
+      </c>
+      <c r="C261" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>317</v>
+      </c>
+      <c r="B262" t="s">
+        <v>318</v>
+      </c>
+      <c r="C262" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>317</v>
+      </c>
+      <c r="B263" t="s">
+        <v>318</v>
+      </c>
+      <c r="C263" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>317</v>
+      </c>
+      <c r="B264" t="s">
+        <v>318</v>
+      </c>
+      <c r="C264" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>319</v>
+      </c>
+      <c r="B265" t="s">
+        <v>322</v>
+      </c>
+      <c r="C265" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>319</v>
+      </c>
+      <c r="B266" t="s">
+        <v>322</v>
+      </c>
+      <c r="C266" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>321</v>
+      </c>
+      <c r="B267" t="s">
+        <v>325</v>
+      </c>
+      <c r="C267" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>321</v>
+      </c>
+      <c r="B268" t="s">
+        <v>325</v>
+      </c>
+      <c r="C268" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>321</v>
+      </c>
+      <c r="B269" t="s">
+        <v>325</v>
+      </c>
+      <c r="C269" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>321</v>
+      </c>
+      <c r="B270" t="s">
+        <v>325</v>
+      </c>
+      <c r="C270" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>321</v>
+      </c>
+      <c r="B271" t="s">
+        <v>325</v>
+      </c>
+      <c r="C271" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>322</v>
+      </c>
+      <c r="B272" t="s">
+        <v>331</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>323</v>
+      </c>
+      <c r="B273" t="s">
+        <v>332</v>
+      </c>
+      <c r="C273" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>323</v>
+      </c>
+      <c r="B274" t="s">
+        <v>332</v>
+      </c>
+      <c r="C274" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>323</v>
+      </c>
+      <c r="B275" t="s">
+        <v>332</v>
+      </c>
+      <c r="C275" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>324</v>
+      </c>
+      <c r="B276" t="s">
+        <v>336</v>
+      </c>
+      <c r="C276" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>324</v>
+      </c>
+      <c r="B277" t="s">
+        <v>336</v>
+      </c>
+      <c r="C277" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>324</v>
+      </c>
+      <c r="B278" t="s">
+        <v>336</v>
+      </c>
+      <c r="C278" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>324</v>
+      </c>
+      <c r="B279" t="s">
+        <v>336</v>
+      </c>
+      <c r="C279" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>324</v>
+      </c>
+      <c r="B280" t="s">
+        <v>336</v>
+      </c>
+      <c r="C280" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>324</v>
+      </c>
+      <c r="B281" t="s">
+        <v>336</v>
+      </c>
+      <c r="C281" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>324</v>
+      </c>
+      <c r="B282" t="s">
+        <v>336</v>
+      </c>
+      <c r="C282" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>324</v>
+      </c>
+      <c r="B283" t="s">
+        <v>336</v>
+      </c>
+      <c r="C283" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>324</v>
+      </c>
+      <c r="B284" t="s">
+        <v>336</v>
+      </c>
+      <c r="C284" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>328</v>
+      </c>
+      <c r="B285" t="s">
+        <v>340</v>
+      </c>
+      <c r="C285" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>328</v>
+      </c>
+      <c r="B286" t="s">
+        <v>340</v>
+      </c>
+      <c r="C286" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>328</v>
+      </c>
+      <c r="B287" t="s">
+        <v>340</v>
+      </c>
+      <c r="C287" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>329</v>
+      </c>
+      <c r="B288" t="s">
+        <v>344</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>330</v>
+      </c>
+      <c r="B289" t="s">
+        <v>345</v>
+      </c>
+      <c r="C289" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>330</v>
+      </c>
+      <c r="B290" t="s">
+        <v>345</v>
+      </c>
+      <c r="C290" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>330</v>
+      </c>
+      <c r="B291" t="s">
+        <v>345</v>
+      </c>
+      <c r="C291" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>330</v>
+      </c>
+      <c r="B292" t="s">
+        <v>345</v>
+      </c>
+      <c r="C292" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>330</v>
+      </c>
+      <c r="B293" t="s">
+        <v>345</v>
+      </c>
+      <c r="C293" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>330</v>
+      </c>
+      <c r="B294" t="s">
+        <v>345</v>
+      </c>
+      <c r="C294" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>330</v>
+      </c>
+      <c r="B295" t="s">
+        <v>345</v>
+      </c>
+      <c r="C295" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>330</v>
+      </c>
+      <c r="B296" t="s">
+        <v>345</v>
+      </c>
+      <c r="C296" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>330</v>
+      </c>
+      <c r="B297" t="s">
+        <v>345</v>
+      </c>
+      <c r="C297" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>330</v>
+      </c>
+      <c r="B298" t="s">
+        <v>345</v>
+      </c>
+      <c r="C298" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>330</v>
+      </c>
+      <c r="B299" t="s">
+        <v>345</v>
+      </c>
+      <c r="C299" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>330</v>
+      </c>
+      <c r="B300" t="s">
+        <v>345</v>
+      </c>
+      <c r="C300" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>330</v>
+      </c>
+      <c r="B301" t="s">
+        <v>345</v>
+      </c>
+      <c r="C301" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>330</v>
+      </c>
+      <c r="B302" t="s">
+        <v>345</v>
+      </c>
+      <c r="C302" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>331</v>
+      </c>
+      <c r="B303" t="s">
+        <v>360</v>
+      </c>
+      <c r="C303" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>332</v>
+      </c>
+      <c r="B304" t="s">
+        <v>362</v>
+      </c>
+      <c r="C304" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>333</v>
+      </c>
+      <c r="B305" t="s">
+        <v>364</v>
+      </c>
+      <c r="C305" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>334</v>
+      </c>
+      <c r="B306" t="s">
+        <v>366</v>
+      </c>
+      <c r="C306" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>335</v>
+      </c>
+      <c r="B307" t="s">
+        <v>368</v>
+      </c>
+      <c r="C307" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>335</v>
+      </c>
+      <c r="B308" t="s">
+        <v>368</v>
+      </c>
+      <c r="C308" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>335</v>
+      </c>
+      <c r="B309" t="s">
+        <v>368</v>
+      </c>
+      <c r="C309" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>335</v>
+      </c>
+      <c r="B310" t="s">
+        <v>368</v>
+      </c>
+      <c r="C310" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>335</v>
+      </c>
+      <c r="B311" t="s">
+        <v>368</v>
+      </c>
+      <c r="C311" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>335</v>
+      </c>
+      <c r="B312" t="s">
+        <v>368</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>336</v>
+      </c>
+      <c r="B313" t="s">
+        <v>374</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>344</v>
+      </c>
+      <c r="B314" t="s">
+        <v>375</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>347</v>
+      </c>
+      <c r="B315" t="s">
+        <v>376</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>348</v>
+      </c>
+      <c r="B316" t="s">
+        <v>377</v>
+      </c>
+      <c r="C316" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>348</v>
+      </c>
+      <c r="B317" t="s">
+        <v>377</v>
+      </c>
+      <c r="C317" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>348</v>
+      </c>
+      <c r="B318" t="s">
+        <v>377</v>
+      </c>
+      <c r="C318" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>350</v>
+      </c>
+      <c r="B319" t="s">
+        <v>381</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>350</v>
+      </c>
+      <c r="B320" t="s">
+        <v>381</v>
+      </c>
+      <c r="C320" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>350</v>
+      </c>
+      <c r="B321" t="s">
+        <v>381</v>
+      </c>
+      <c r="C321" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>350</v>
+      </c>
+      <c r="B322" t="s">
+        <v>381</v>
+      </c>
+      <c r="C322" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>351</v>
+      </c>
+      <c r="B323" t="s">
+        <v>385</v>
+      </c>
+      <c r="C323" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>354</v>
+      </c>
+      <c r="B324" t="s">
+        <v>387</v>
+      </c>
+      <c r="C324" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>354</v>
+      </c>
+      <c r="B325" t="s">
+        <v>387</v>
+      </c>
+      <c r="C325" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>354</v>
+      </c>
+      <c r="B326" t="s">
+        <v>387</v>
+      </c>
+      <c r="C326" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>354</v>
+      </c>
+      <c r="B327" t="s">
+        <v>387</v>
+      </c>
+      <c r="C327" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>354</v>
+      </c>
+      <c r="B328" t="s">
+        <v>387</v>
+      </c>
+      <c r="C328" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>355</v>
+      </c>
+      <c r="B329" t="s">
+        <v>388</v>
+      </c>
+      <c r="C329" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>355</v>
+      </c>
+      <c r="B330" t="s">
+        <v>388</v>
+      </c>
+      <c r="C330" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>355</v>
+      </c>
+      <c r="B331" t="s">
+        <v>388</v>
+      </c>
+      <c r="C331" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>355</v>
+      </c>
+      <c r="B332" t="s">
+        <v>388</v>
+      </c>
+      <c r="C332" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>355</v>
+      </c>
+      <c r="B333" t="s">
+        <v>388</v>
+      </c>
+      <c r="C333" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>355</v>
+      </c>
+      <c r="B334" t="s">
+        <v>388</v>
+      </c>
+      <c r="C334" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>355</v>
+      </c>
+      <c r="B335" t="s">
+        <v>388</v>
+      </c>
+      <c r="C335" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>356</v>
+      </c>
+      <c r="B336" t="s">
+        <v>389</v>
+      </c>
+      <c r="C336" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>356</v>
+      </c>
+      <c r="B337" t="s">
+        <v>389</v>
+      </c>
+      <c r="C337" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>356</v>
+      </c>
+      <c r="B338" t="s">
+        <v>389</v>
+      </c>
+      <c r="C338" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>356</v>
+      </c>
+      <c r="B339" t="s">
+        <v>389</v>
+      </c>
+      <c r="C339" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>356</v>
+      </c>
+      <c r="B340" t="s">
+        <v>389</v>
+      </c>
+      <c r="C340" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>356</v>
+      </c>
+      <c r="B341" t="s">
+        <v>389</v>
+      </c>
+      <c r="C341" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>357</v>
+      </c>
+      <c r="B342" t="s">
+        <v>390</v>
+      </c>
+      <c r="C342" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>357</v>
+      </c>
+      <c r="B343" t="s">
+        <v>390</v>
+      </c>
+      <c r="C343" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>358</v>
+      </c>
+      <c r="B344" t="s">
+        <v>391</v>
+      </c>
+      <c r="C344" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>358</v>
+      </c>
+      <c r="B345" t="s">
+        <v>391</v>
+      </c>
+      <c r="C345" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>358</v>
+      </c>
+      <c r="B346" t="s">
+        <v>391</v>
+      </c>
+      <c r="C346" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>359</v>
+      </c>
+      <c r="B347" t="s">
+        <v>393</v>
+      </c>
+      <c r="C347" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>359</v>
+      </c>
+      <c r="B348" t="s">
+        <v>393</v>
+      </c>
+      <c r="C348" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>359</v>
+      </c>
+      <c r="B349" t="s">
+        <v>393</v>
+      </c>
+      <c r="C349" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>359</v>
+      </c>
+      <c r="B350" t="s">
+        <v>393</v>
+      </c>
+      <c r="C350" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>360</v>
+      </c>
+      <c r="B351" t="s">
+        <v>394</v>
+      </c>
+      <c r="C351" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>360</v>
+      </c>
+      <c r="B352" t="s">
+        <v>394</v>
+      </c>
+      <c r="C352" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>360</v>
+      </c>
+      <c r="B353" t="s">
+        <v>394</v>
+      </c>
+      <c r="C353" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>361</v>
+      </c>
+      <c r="B354" t="s">
+        <v>395</v>
+      </c>
+      <c r="C354" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>361</v>
+      </c>
+      <c r="B355" t="s">
+        <v>395</v>
+      </c>
+      <c r="C355" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>361</v>
+      </c>
+      <c r="B356" t="s">
+        <v>395</v>
+      </c>
+      <c r="C356" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>361</v>
+      </c>
+      <c r="B357" t="s">
+        <v>395</v>
+      </c>
+      <c r="C357" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>361</v>
+      </c>
+      <c r="B358" t="s">
+        <v>395</v>
+      </c>
+      <c r="C358" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>361</v>
+      </c>
+      <c r="B359" t="s">
+        <v>395</v>
+      </c>
+      <c r="C359" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s">
+        <v>395</v>
+      </c>
+      <c r="C360" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>395</v>
+      </c>
+      <c r="C361" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>395</v>
+      </c>
+      <c r="C362" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>395</v>
+      </c>
+      <c r="C363" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>361</v>
+      </c>
+      <c r="B364" t="s">
+        <v>395</v>
+      </c>
+      <c r="C364" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>361</v>
+      </c>
+      <c r="B365" t="s">
+        <v>395</v>
+      </c>
+      <c r="C365" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>363</v>
+      </c>
+      <c r="B366" t="s">
+        <v>396</v>
+      </c>
+      <c r="C366" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>363</v>
+      </c>
+      <c r="B367" t="s">
+        <v>396</v>
+      </c>
+      <c r="C367" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>363</v>
+      </c>
+      <c r="B368" t="s">
+        <v>396</v>
+      </c>
+      <c r="C368" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>363</v>
+      </c>
+      <c r="B369" t="s">
+        <v>396</v>
+      </c>
+      <c r="C369" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>364</v>
+      </c>
+      <c r="B370" t="s">
+        <v>397</v>
+      </c>
+      <c r="C370" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>364</v>
+      </c>
+      <c r="B371" t="s">
+        <v>397</v>
+      </c>
+      <c r="C371" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>364</v>
+      </c>
+      <c r="B372" t="s">
+        <v>397</v>
+      </c>
+      <c r="C372" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>364</v>
+      </c>
+      <c r="B373" t="s">
+        <v>397</v>
+      </c>
+      <c r="C373" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>365</v>
+      </c>
+      <c r="B374" t="s">
+        <v>398</v>
+      </c>
+      <c r="C374" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>365</v>
+      </c>
+      <c r="B375" t="s">
+        <v>398</v>
+      </c>
+      <c r="C375" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>365</v>
+      </c>
+      <c r="B376" t="s">
+        <v>398</v>
+      </c>
+      <c r="C376" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>366</v>
+      </c>
+      <c r="B377" t="s">
+        <v>399</v>
+      </c>
+      <c r="C377" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>366</v>
+      </c>
+      <c r="B378" t="s">
+        <v>399</v>
+      </c>
+      <c r="C378" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>366</v>
+      </c>
+      <c r="B379" t="s">
+        <v>399</v>
+      </c>
+      <c r="C379" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>366</v>
+      </c>
+      <c r="B380" t="s">
+        <v>399</v>
+      </c>
+      <c r="C380" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>373</v>
+      </c>
+      <c r="B381" t="s">
+        <v>400</v>
+      </c>
+      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>373</v>
+      </c>
+      <c r="B382" t="s">
+        <v>400</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>374</v>
+      </c>
+      <c r="B383" t="s">
+        <v>401</v>
+      </c>
+      <c r="C383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>374</v>
+      </c>
+      <c r="B384" t="s">
+        <v>401</v>
+      </c>
+      <c r="C384" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>375</v>
+      </c>
+      <c r="B385" t="s">
+        <v>402</v>
+      </c>
+      <c r="C385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>375</v>
+      </c>
+      <c r="B386" t="s">
+        <v>402</v>
+      </c>
+      <c r="C386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>376</v>
+      </c>
+      <c r="B387" t="s">
+        <v>403</v>
+      </c>
+      <c r="C387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>376</v>
+      </c>
+      <c r="B388" t="s">
+        <v>403</v>
+      </c>
+      <c r="C388" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>377</v>
+      </c>
+      <c r="B389" t="s">
+        <v>404</v>
+      </c>
+      <c r="C389" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>377</v>
+      </c>
+      <c r="B390" t="s">
+        <v>404</v>
+      </c>
+      <c r="C390" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>378</v>
+      </c>
+      <c r="B391" t="s">
+        <v>405</v>
+      </c>
+      <c r="C391" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>378</v>
+      </c>
+      <c r="B392" t="s">
+        <v>405</v>
+      </c>
+      <c r="C392" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>378</v>
+      </c>
+      <c r="B393" t="s">
+        <v>405</v>
+      </c>
+      <c r="C393" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>380</v>
+      </c>
+      <c r="B394" t="s">
+        <v>407</v>
+      </c>
+      <c r="C394" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>380</v>
+      </c>
+      <c r="B395" t="s">
+        <v>407</v>
+      </c>
+      <c r="C395" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>380</v>
+      </c>
+      <c r="B396" t="s">
+        <v>407</v>
+      </c>
+      <c r="C396" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>381</v>
+      </c>
+      <c r="B397" t="s">
+        <v>408</v>
+      </c>
+      <c r="C397" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>381</v>
+      </c>
+      <c r="B398" t="s">
+        <v>408</v>
+      </c>
+      <c r="C398" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>381</v>
+      </c>
+      <c r="B399" t="s">
+        <v>408</v>
+      </c>
+      <c r="C399" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>382</v>
+      </c>
+      <c r="B400" t="s">
+        <v>409</v>
+      </c>
+      <c r="C400" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>382</v>
+      </c>
+      <c r="B401" t="s">
+        <v>409</v>
+      </c>
+      <c r="C401" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>382</v>
+      </c>
+      <c r="B402" t="s">
+        <v>409</v>
+      </c>
+      <c r="C402" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>383</v>
+      </c>
+      <c r="B403" t="s">
+        <v>410</v>
+      </c>
+      <c r="C403" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>383</v>
+      </c>
+      <c r="B404" t="s">
+        <v>410</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>384</v>
+      </c>
+      <c r="B405" t="s">
+        <v>411</v>
+      </c>
+      <c r="C405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>384</v>
+      </c>
+      <c r="B406" t="s">
+        <v>411</v>
+      </c>
+      <c r="C406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>385</v>
+      </c>
+      <c r="B407" t="s">
+        <v>412</v>
+      </c>
+      <c r="C407" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>385</v>
+      </c>
+      <c r="B408" t="s">
+        <v>412</v>
+      </c>
+      <c r="C408" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>386</v>
+      </c>
+      <c r="B409" t="s">
+        <v>413</v>
+      </c>
+      <c r="C409" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>386</v>
+      </c>
+      <c r="B410" t="s">
+        <v>413</v>
+      </c>
+      <c r="C410" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>389</v>
+      </c>
+      <c r="B411" t="s">
+        <v>414</v>
+      </c>
+      <c r="C411" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>390</v>
+      </c>
+      <c r="B412" t="s">
+        <v>416</v>
+      </c>
+      <c r="C412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>390</v>
+      </c>
+      <c r="B413" t="s">
+        <v>416</v>
+      </c>
+      <c r="C413" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>390</v>
+      </c>
+      <c r="B414" t="s">
+        <v>416</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>391</v>
+      </c>
+      <c r="B415" t="s">
+        <v>419</v>
+      </c>
+      <c r="C415" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>391</v>
+      </c>
+      <c r="B416" t="s">
+        <v>419</v>
+      </c>
+      <c r="C416" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>392</v>
+      </c>
+      <c r="B417" t="s">
+        <v>422</v>
+      </c>
+      <c r="C417" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>392</v>
+      </c>
+      <c r="B418" t="s">
+        <v>422</v>
+      </c>
+      <c r="C418" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>393</v>
+      </c>
+      <c r="B419" t="s">
+        <v>425</v>
+      </c>
+      <c r="C419" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>393</v>
+      </c>
+      <c r="B420" t="s">
+        <v>425</v>
+      </c>
+      <c r="C420" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>393</v>
+      </c>
+      <c r="B421" t="s">
+        <v>425</v>
+      </c>
+      <c r="C421" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>393</v>
+      </c>
+      <c r="B422" t="s">
+        <v>425</v>
+      </c>
+      <c r="C422" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>393</v>
+      </c>
+      <c r="B423" t="s">
+        <v>425</v>
+      </c>
+      <c r="C423" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>393</v>
+      </c>
+      <c r="B424" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>393</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+      <c r="C425" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>393</v>
+      </c>
+      <c r="B426" t="s">
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>394</v>
+      </c>
+      <c r="B427" t="s">
+        <v>432</v>
+      </c>
+      <c r="C427" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>394</v>
+      </c>
+      <c r="B428" t="s">
+        <v>432</v>
+      </c>
+      <c r="C428" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>394</v>
+      </c>
+      <c r="B429" t="s">
+        <v>432</v>
+      </c>
+      <c r="C429" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>396</v>
+      </c>
+      <c r="B430" t="s">
+        <v>436</v>
+      </c>
+      <c r="C430" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>396</v>
+      </c>
+      <c r="B431" t="s">
+        <v>436</v>
+      </c>
+      <c r="C431" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>396</v>
+      </c>
+      <c r="B432" t="s">
+        <v>436</v>
+      </c>
+      <c r="C432" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>397</v>
+      </c>
+      <c r="B433" t="s">
+        <v>437</v>
+      </c>
+      <c r="C433" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>397</v>
+      </c>
+      <c r="B434" t="s">
+        <v>437</v>
+      </c>
+      <c r="C434" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>397</v>
+      </c>
+      <c r="B435" t="s">
+        <v>437</v>
+      </c>
+      <c r="C435" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>397</v>
+      </c>
+      <c r="B436" t="s">
+        <v>437</v>
+      </c>
+      <c r="C436" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>397</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+      <c r="C437" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>397</v>
+      </c>
+      <c r="B438" t="s">
+        <v>437</v>
+      </c>
+      <c r="C438" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>397</v>
+      </c>
+      <c r="B439" t="s">
+        <v>437</v>
+      </c>
+      <c r="C439" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>397</v>
+      </c>
+      <c r="B440" t="s">
+        <v>437</v>
+      </c>
+      <c r="C440" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>397</v>
+      </c>
+      <c r="B441" t="s">
+        <v>437</v>
+      </c>
+      <c r="C441" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>397</v>
+      </c>
+      <c r="B442" t="s">
+        <v>437</v>
+      </c>
+      <c r="C442" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>397</v>
+      </c>
+      <c r="B443" t="s">
+        <v>437</v>
+      </c>
+      <c r="C443" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>398</v>
+      </c>
+      <c r="B444" t="s">
+        <v>441</v>
+      </c>
+      <c r="C444" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>398</v>
+      </c>
+      <c r="B445" t="s">
+        <v>441</v>
+      </c>
+      <c r="C445" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>398</v>
+      </c>
+      <c r="B446" t="s">
+        <v>441</v>
+      </c>
+      <c r="C446" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>398</v>
+      </c>
+      <c r="B447" t="s">
+        <v>441</v>
+      </c>
+      <c r="C447" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>398</v>
+      </c>
+      <c r="B448" t="s">
+        <v>441</v>
+      </c>
+      <c r="C448" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>398</v>
+      </c>
+      <c r="B449" t="s">
+        <v>441</v>
+      </c>
+      <c r="C449" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>398</v>
+      </c>
+      <c r="B450" t="s">
+        <v>441</v>
+      </c>
+      <c r="C450" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>398</v>
+      </c>
+      <c r="B451" t="s">
+        <v>441</v>
+      </c>
+      <c r="C451" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>398</v>
+      </c>
+      <c r="B452" t="s">
+        <v>441</v>
+      </c>
+      <c r="C452" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>398</v>
+      </c>
+      <c r="B453" t="s">
+        <v>441</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>399</v>
+      </c>
+      <c r="B454" t="s">
+        <v>449</v>
+      </c>
+      <c r="C454" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>399</v>
+      </c>
+      <c r="B455" t="s">
+        <v>449</v>
+      </c>
+      <c r="C455" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>399</v>
+      </c>
+      <c r="B456" t="s">
+        <v>449</v>
+      </c>
+      <c r="C456" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>399</v>
+      </c>
+      <c r="B457" t="s">
+        <v>449</v>
+      </c>
+      <c r="C457" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>399</v>
+      </c>
+      <c r="B458" t="s">
+        <v>449</v>
+      </c>
+      <c r="C458" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>399</v>
+      </c>
+      <c r="B459" t="s">
+        <v>449</v>
+      </c>
+      <c r="C459" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>399</v>
+      </c>
+      <c r="B460" t="s">
+        <v>449</v>
+      </c>
+      <c r="C460" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>399</v>
+      </c>
+      <c r="B461" t="s">
+        <v>449</v>
+      </c>
+      <c r="C461" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>399</v>
+      </c>
+      <c r="B462" t="s">
+        <v>449</v>
+      </c>
+      <c r="C462" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>399</v>
+      </c>
+      <c r="B463" t="s">
+        <v>449</v>
+      </c>
+      <c r="C463" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>399</v>
+      </c>
+      <c r="B464" t="s">
+        <v>449</v>
+      </c>
+      <c r="C464" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>399</v>
+      </c>
+      <c r="B465" t="s">
+        <v>449</v>
+      </c>
+      <c r="C465" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>399</v>
+      </c>
+      <c r="B466" t="s">
+        <v>449</v>
+      </c>
+      <c r="C466" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>399</v>
+      </c>
+      <c r="B467" t="s">
+        <v>449</v>
+      </c>
+      <c r="C467" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>399</v>
+      </c>
+      <c r="B468" t="s">
+        <v>449</v>
+      </c>
+      <c r="C468" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>399</v>
+      </c>
+      <c r="B469" t="s">
+        <v>449</v>
+      </c>
+      <c r="C469" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>399</v>
+      </c>
+      <c r="B470" t="s">
+        <v>449</v>
+      </c>
+      <c r="C470" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>399</v>
+      </c>
+      <c r="B471" t="s">
+        <v>449</v>
+      </c>
+      <c r="C471" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>399</v>
+      </c>
+      <c r="B472" t="s">
+        <v>449</v>
+      </c>
+      <c r="C472" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>399</v>
+      </c>
+      <c r="B473" t="s">
+        <v>449</v>
+      </c>
+      <c r="C473" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>399</v>
+      </c>
+      <c r="B474" t="s">
+        <v>449</v>
+      </c>
+      <c r="C474" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>399</v>
+      </c>
+      <c r="B475" t="s">
+        <v>449</v>
+      </c>
+      <c r="C475" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>399</v>
+      </c>
+      <c r="B476" t="s">
+        <v>449</v>
+      </c>
+      <c r="C476" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>399</v>
+      </c>
+      <c r="B477" t="s">
+        <v>449</v>
+      </c>
+      <c r="C477" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>399</v>
+      </c>
+      <c r="B478" t="s">
+        <v>449</v>
+      </c>
+      <c r="C478" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>399</v>
+      </c>
+      <c r="B479" t="s">
+        <v>449</v>
+      </c>
+      <c r="C479" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>399</v>
+      </c>
+      <c r="B480" t="s">
+        <v>449</v>
+      </c>
+      <c r="C480" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>399</v>
+      </c>
+      <c r="B481" t="s">
+        <v>449</v>
+      </c>
+      <c r="C481" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>399</v>
+      </c>
+      <c r="B482" t="s">
+        <v>449</v>
+      </c>
+      <c r="C482" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>399</v>
+      </c>
+      <c r="B483" t="s">
+        <v>449</v>
+      </c>
+      <c r="C483" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>402</v>
+      </c>
+      <c r="B484" t="s">
+        <v>470</v>
+      </c>
+      <c r="C484" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>403</v>
+      </c>
+      <c r="B485" t="s">
+        <v>472</v>
+      </c>
+      <c r="C485" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>403</v>
+      </c>
+      <c r="B486" t="s">
+        <v>472</v>
+      </c>
+      <c r="C486" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>407</v>
+      </c>
+      <c r="B487" t="s">
+        <v>475</v>
+      </c>
+      <c r="C487" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>407</v>
+      </c>
+      <c r="B488" t="s">
+        <v>475</v>
+      </c>
+      <c r="C488" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>407</v>
+      </c>
+      <c r="B489" t="s">
+        <v>475</v>
+      </c>
+      <c r="C489" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>407</v>
+      </c>
+      <c r="B490" t="s">
+        <v>475</v>
+      </c>
+      <c r="C490" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>407</v>
+      </c>
+      <c r="B491" t="s">
+        <v>475</v>
+      </c>
+      <c r="C491" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>408</v>
+      </c>
+      <c r="B492" t="s">
+        <v>476</v>
+      </c>
+      <c r="C492" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>408</v>
+      </c>
+      <c r="B493" t="s">
+        <v>476</v>
+      </c>
+      <c r="C493" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>408</v>
+      </c>
+      <c r="B494" t="s">
+        <v>476</v>
+      </c>
+      <c r="C494" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>408</v>
+      </c>
+      <c r="B495" t="s">
+        <v>476</v>
+      </c>
+      <c r="C495" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>408</v>
+      </c>
+      <c r="B496" t="s">
+        <v>476</v>
+      </c>
+      <c r="C496" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>408</v>
+      </c>
+      <c r="B497" t="s">
+        <v>476</v>
+      </c>
+      <c r="C497" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>408</v>
+      </c>
+      <c r="B498" t="s">
+        <v>476</v>
+      </c>
+      <c r="C498" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>409</v>
+      </c>
+      <c r="B499" t="s">
+        <v>477</v>
+      </c>
+      <c r="C499" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>409</v>
+      </c>
+      <c r="B500" t="s">
+        <v>477</v>
+      </c>
+      <c r="C500" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>409</v>
+      </c>
+      <c r="B501" t="s">
+        <v>477</v>
+      </c>
+      <c r="C501" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>409</v>
+      </c>
+      <c r="B502" t="s">
+        <v>477</v>
+      </c>
+      <c r="C502" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>409</v>
+      </c>
+      <c r="B503" t="s">
+        <v>477</v>
+      </c>
+      <c r="C503" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>409</v>
+      </c>
+      <c r="B504" t="s">
+        <v>477</v>
+      </c>
+      <c r="C504" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>410</v>
+      </c>
+      <c r="B505" t="s">
+        <v>478</v>
+      </c>
+      <c r="C505" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>410</v>
+      </c>
+      <c r="B506" t="s">
+        <v>478</v>
+      </c>
+      <c r="C506" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>411</v>
+      </c>
+      <c r="B507" t="s">
+        <v>479</v>
+      </c>
+      <c r="C507" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>411</v>
+      </c>
+      <c r="B508" t="s">
+        <v>479</v>
+      </c>
+      <c r="C508" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>411</v>
+      </c>
+      <c r="B509" t="s">
+        <v>479</v>
+      </c>
+      <c r="C509" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>412</v>
+      </c>
+      <c r="B510" t="s">
+        <v>481</v>
+      </c>
+      <c r="C510" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>412</v>
+      </c>
+      <c r="B511" t="s">
+        <v>481</v>
+      </c>
+      <c r="C511" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>412</v>
+      </c>
+      <c r="B512" t="s">
+        <v>481</v>
+      </c>
+      <c r="C512" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>412</v>
+      </c>
+      <c r="B513" t="s">
+        <v>481</v>
+      </c>
+      <c r="C513" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>413</v>
+      </c>
+      <c r="B514" t="s">
+        <v>482</v>
+      </c>
+      <c r="C514" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>413</v>
+      </c>
+      <c r="B515" t="s">
+        <v>482</v>
+      </c>
+      <c r="C515" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>413</v>
+      </c>
+      <c r="B516" t="s">
+        <v>482</v>
+      </c>
+      <c r="C516" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>418</v>
+      </c>
+      <c r="B517" t="s">
+        <v>483</v>
+      </c>
+      <c r="C517" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>418</v>
+      </c>
+      <c r="B518" t="s">
+        <v>483</v>
+      </c>
+      <c r="C518" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>418</v>
+      </c>
+      <c r="B519" t="s">
+        <v>483</v>
+      </c>
+      <c r="C519" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>418</v>
+      </c>
+      <c r="B520" t="s">
+        <v>483</v>
+      </c>
+      <c r="C520" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>419</v>
+      </c>
+      <c r="B521" t="s">
+        <v>484</v>
+      </c>
+      <c r="C521" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>419</v>
+      </c>
+      <c r="B522" t="s">
+        <v>484</v>
+      </c>
+      <c r="C522" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>419</v>
+      </c>
+      <c r="B523" t="s">
+        <v>484</v>
+      </c>
+      <c r="C523" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>419</v>
+      </c>
+      <c r="B524" t="s">
+        <v>484</v>
+      </c>
+      <c r="C524" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>420</v>
+      </c>
+      <c r="B525" t="s">
+        <v>485</v>
+      </c>
+      <c r="C525" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>420</v>
+      </c>
+      <c r="B526" t="s">
+        <v>485</v>
+      </c>
+      <c r="C526" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>420</v>
+      </c>
+      <c r="B527" t="s">
+        <v>485</v>
+      </c>
+      <c r="C527" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>421</v>
+      </c>
+      <c r="B528" t="s">
+        <v>486</v>
+      </c>
+      <c r="C528" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>421</v>
+      </c>
+      <c r="B529" t="s">
+        <v>486</v>
+      </c>
+      <c r="C529" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>421</v>
+      </c>
+      <c r="B530" t="s">
+        <v>486</v>
+      </c>
+      <c r="C530" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>421</v>
+      </c>
+      <c r="B531" t="s">
+        <v>486</v>
+      </c>
+      <c r="C531" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>433</v>
+      </c>
+      <c r="B532" t="s">
+        <v>487</v>
+      </c>
+      <c r="C532" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>433</v>
+      </c>
+      <c r="B533" t="s">
+        <v>487</v>
+      </c>
+      <c r="C533" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>434</v>
+      </c>
+      <c r="B534" t="s">
+        <v>488</v>
+      </c>
+      <c r="C534" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>434</v>
+      </c>
+      <c r="B535" t="s">
+        <v>488</v>
+      </c>
+      <c r="C535" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>434</v>
+      </c>
+      <c r="B536" t="s">
+        <v>488</v>
+      </c>
+      <c r="C536" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>435</v>
+      </c>
+      <c r="B537" t="s">
+        <v>489</v>
+      </c>
+      <c r="C537" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>435</v>
+      </c>
+      <c r="B538" t="s">
+        <v>489</v>
+      </c>
+      <c r="C538" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>436</v>
+      </c>
+      <c r="B539" t="s">
+        <v>490</v>
+      </c>
+      <c r="C539" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>437</v>
+      </c>
+      <c r="B540" t="s">
+        <v>491</v>
+      </c>
+      <c r="C540" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>437</v>
+      </c>
+      <c r="B541" t="s">
+        <v>491</v>
+      </c>
+      <c r="C541" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>445</v>
+      </c>
+      <c r="B542" t="s">
+        <v>492</v>
+      </c>
+      <c r="C542" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>445</v>
+      </c>
+      <c r="B543" t="s">
+        <v>492</v>
+      </c>
+      <c r="C543" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>446</v>
+      </c>
+      <c r="B544" t="s">
+        <v>493</v>
+      </c>
+      <c r="C544" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>446</v>
+      </c>
+      <c r="B545" t="s">
+        <v>493</v>
+      </c>
+      <c r="C545" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>447</v>
+      </c>
+      <c r="B546" t="s">
+        <v>494</v>
+      </c>
+      <c r="C546" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>447</v>
+      </c>
+      <c r="B547" t="s">
+        <v>494</v>
+      </c>
+      <c r="C547" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>448</v>
+      </c>
+      <c r="B548" t="s">
+        <v>495</v>
+      </c>
+      <c r="C548" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>448</v>
+      </c>
+      <c r="B549" t="s">
+        <v>495</v>
+      </c>
+      <c r="C549" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>449</v>
+      </c>
+      <c r="B550" t="s">
+        <v>496</v>
+      </c>
+      <c r="C550" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>449</v>
+      </c>
+      <c r="B551" t="s">
+        <v>496</v>
+      </c>
+      <c r="C551" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>450</v>
+      </c>
+      <c r="B552" t="s">
+        <v>497</v>
+      </c>
+      <c r="C552" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>450</v>
+      </c>
+      <c r="B553" t="s">
+        <v>497</v>
+      </c>
+      <c r="C553" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>450</v>
+      </c>
+      <c r="B554" t="s">
+        <v>497</v>
+      </c>
+      <c r="C554" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>452</v>
+      </c>
+      <c r="B555" t="s">
+        <v>498</v>
+      </c>
+      <c r="C555" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>452</v>
+      </c>
+      <c r="B556" t="s">
+        <v>498</v>
+      </c>
+      <c r="C556" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>452</v>
+      </c>
+      <c r="B557" t="s">
+        <v>498</v>
+      </c>
+      <c r="C557" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>453</v>
+      </c>
+      <c r="B558" t="s">
+        <v>499</v>
+      </c>
+      <c r="C558" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>453</v>
+      </c>
+      <c r="B559" t="s">
+        <v>499</v>
+      </c>
+      <c r="C559" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>453</v>
+      </c>
+      <c r="B560" t="s">
+        <v>499</v>
+      </c>
+      <c r="C560" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>454</v>
+      </c>
+      <c r="B561" t="s">
+        <v>500</v>
+      </c>
+      <c r="C561" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>454</v>
+      </c>
+      <c r="B562" t="s">
+        <v>500</v>
+      </c>
+      <c r="C562" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>454</v>
+      </c>
+      <c r="B563" t="s">
+        <v>500</v>
+      </c>
+      <c r="C563" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>455</v>
+      </c>
+      <c r="B564" t="s">
+        <v>501</v>
+      </c>
+      <c r="C564" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>455</v>
+      </c>
+      <c r="B565" t="s">
+        <v>501</v>
+      </c>
+      <c r="C565" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>456</v>
+      </c>
+      <c r="B566" t="s">
+        <v>502</v>
+      </c>
+      <c r="C566" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>456</v>
+      </c>
+      <c r="B567" t="s">
+        <v>502</v>
+      </c>
+      <c r="C567" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>456</v>
+      </c>
+      <c r="B568" t="s">
+        <v>502</v>
+      </c>
+      <c r="C568" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>457</v>
+      </c>
+      <c r="B569" t="s">
+        <v>503</v>
+      </c>
+      <c r="C569" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>457</v>
+      </c>
+      <c r="B570" t="s">
+        <v>503</v>
+      </c>
+      <c r="C570" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>457</v>
+      </c>
+      <c r="B571" t="s">
+        <v>503</v>
+      </c>
+      <c r="C571" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>458</v>
+      </c>
+      <c r="B572" t="s">
+        <v>504</v>
+      </c>
+      <c r="C572" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>458</v>
+      </c>
+      <c r="B573" t="s">
+        <v>504</v>
+      </c>
+      <c r="C573" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>458</v>
+      </c>
+      <c r="B574" t="s">
+        <v>504</v>
+      </c>
+      <c r="C574" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>459</v>
+      </c>
+      <c r="B575" t="s">
+        <v>505</v>
+      </c>
+      <c r="C575" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>459</v>
+      </c>
+      <c r="B576" t="s">
+        <v>505</v>
+      </c>
+      <c r="C576" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>459</v>
+      </c>
+      <c r="B577" t="s">
+        <v>505</v>
+      </c>
+      <c r="C577" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>460</v>
+      </c>
+      <c r="B578" t="s">
+        <v>506</v>
+      </c>
+      <c r="C578" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>460</v>
+      </c>
+      <c r="B579" t="s">
+        <v>506</v>
+      </c>
+      <c r="C579" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>461</v>
+      </c>
+      <c r="B580" t="s">
+        <v>507</v>
+      </c>
+      <c r="C580" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>461</v>
+      </c>
+      <c r="B581" t="s">
+        <v>507</v>
+      </c>
+      <c r="C581" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>462</v>
+      </c>
+      <c r="B582" t="s">
+        <v>508</v>
+      </c>
+      <c r="C582" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>462</v>
+      </c>
+      <c r="B583" t="s">
+        <v>508</v>
+      </c>
+      <c r="C583" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>463</v>
+      </c>
+      <c r="B584" t="s">
+        <v>509</v>
+      </c>
+      <c r="C584" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>463</v>
+      </c>
+      <c r="B585" t="s">
+        <v>509</v>
+      </c>
+      <c r="C585" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>463</v>
+      </c>
+      <c r="B586" t="s">
+        <v>509</v>
+      </c>
+      <c r="C586" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>464</v>
+      </c>
+      <c r="B587" t="s">
+        <v>510</v>
+      </c>
+      <c r="C587" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>464</v>
+      </c>
+      <c r="B588" t="s">
+        <v>510</v>
+      </c>
+      <c r="C588" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>464</v>
+      </c>
+      <c r="B589" t="s">
+        <v>510</v>
+      </c>
+      <c r="C589" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>465</v>
+      </c>
+      <c r="B590" t="s">
+        <v>511</v>
+      </c>
+      <c r="C590" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>465</v>
+      </c>
+      <c r="B591" t="s">
+        <v>511</v>
+      </c>
+      <c r="C591" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>465</v>
+      </c>
+      <c r="B592" t="s">
+        <v>511</v>
+      </c>
+      <c r="C592" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>466</v>
+      </c>
+      <c r="B593" t="s">
+        <v>512</v>
+      </c>
+      <c r="C593" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>466</v>
+      </c>
+      <c r="B594" t="s">
+        <v>512</v>
+      </c>
+      <c r="C594" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>466</v>
+      </c>
+      <c r="B595" t="s">
+        <v>512</v>
+      </c>
+      <c r="C595" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>467</v>
+      </c>
+      <c r="B596" t="s">
+        <v>513</v>
+      </c>
+      <c r="C596" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>467</v>
+      </c>
+      <c r="B597" t="s">
+        <v>513</v>
+      </c>
+      <c r="C597" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>467</v>
+      </c>
+      <c r="B598" t="s">
+        <v>513</v>
+      </c>
+      <c r="C598" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>468</v>
+      </c>
+      <c r="B599" t="s">
+        <v>514</v>
+      </c>
+      <c r="C599" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>468</v>
+      </c>
+      <c r="B600" t="s">
+        <v>514</v>
+      </c>
+      <c r="C600" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>468</v>
+      </c>
+      <c r="B601" t="s">
+        <v>514</v>
+      </c>
+      <c r="C601" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>469</v>
+      </c>
+      <c r="B602" t="s">
+        <v>515</v>
+      </c>
+      <c r="C602" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>469</v>
+      </c>
+      <c r="B603" t="s">
+        <v>515</v>
+      </c>
+      <c r="C603" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>469</v>
+      </c>
+      <c r="B604" t="s">
+        <v>515</v>
+      </c>
+      <c r="C604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>470</v>
+      </c>
+      <c r="B605" t="s">
+        <v>516</v>
+      </c>
+      <c r="C605" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>470</v>
+      </c>
+      <c r="B606" t="s">
+        <v>516</v>
+      </c>
+      <c r="C606" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>470</v>
+      </c>
+      <c r="B607" t="s">
+        <v>516</v>
+      </c>
+      <c r="C607" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>471</v>
+      </c>
+      <c r="B608" t="s">
+        <v>517</v>
+      </c>
+      <c r="C608" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>471</v>
+      </c>
+      <c r="B609" t="s">
+        <v>517</v>
+      </c>
+      <c r="C609" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>472</v>
+      </c>
+      <c r="B610" t="s">
+        <v>518</v>
+      </c>
+      <c r="C610" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>472</v>
+      </c>
+      <c r="B611" t="s">
+        <v>518</v>
+      </c>
+      <c r="C611" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>472</v>
+      </c>
+      <c r="B612" t="s">
+        <v>518</v>
+      </c>
+      <c r="C612" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>473</v>
+      </c>
+      <c r="B613" t="s">
+        <v>519</v>
+      </c>
+      <c r="C613" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>473</v>
+      </c>
+      <c r="B614" t="s">
+        <v>519</v>
+      </c>
+      <c r="C614" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>473</v>
+      </c>
+      <c r="B615" t="s">
+        <v>519</v>
+      </c>
+      <c r="C615" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>474</v>
+      </c>
+      <c r="B616" t="s">
+        <v>520</v>
+      </c>
+      <c r="C616" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>474</v>
+      </c>
+      <c r="B617" t="s">
+        <v>520</v>
+      </c>
+      <c r="C617" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>474</v>
+      </c>
+      <c r="B618" t="s">
+        <v>520</v>
+      </c>
+      <c r="C618" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>475</v>
+      </c>
+      <c r="B619" t="s">
+        <v>521</v>
+      </c>
+      <c r="C619" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>475</v>
+      </c>
+      <c r="B620" t="s">
+        <v>521</v>
+      </c>
+      <c r="C620" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>475</v>
+      </c>
+      <c r="B621" t="s">
+        <v>521</v>
+      </c>
+      <c r="C621" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>475</v>
+      </c>
+      <c r="B622" t="s">
+        <v>521</v>
+      </c>
+      <c r="C622" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>476</v>
+      </c>
+      <c r="B623" t="s">
+        <v>522</v>
+      </c>
+      <c r="C623" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>476</v>
+      </c>
+      <c r="B624" t="s">
+        <v>522</v>
+      </c>
+      <c r="C624" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>476</v>
+      </c>
+      <c r="B625" t="s">
+        <v>522</v>
+      </c>
+      <c r="C625" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>476</v>
+      </c>
+      <c r="B626" t="s">
+        <v>522</v>
+      </c>
+      <c r="C626" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>478</v>
+      </c>
+      <c r="B627" t="s">
+        <v>523</v>
+      </c>
+      <c r="C627" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>478</v>
+      </c>
+      <c r="B628" t="s">
+        <v>523</v>
+      </c>
+      <c r="C628" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>478</v>
+      </c>
+      <c r="B629" t="s">
+        <v>523</v>
+      </c>
+      <c r="C629" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>478</v>
+      </c>
+      <c r="B630" t="s">
+        <v>523</v>
+      </c>
+      <c r="C630" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>478</v>
+      </c>
+      <c r="B631" t="s">
+        <v>523</v>
+      </c>
+      <c r="C631" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>478</v>
+      </c>
+      <c r="B632" t="s">
+        <v>523</v>
+      </c>
+      <c r="C632" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>478</v>
+      </c>
+      <c r="B633" t="s">
+        <v>523</v>
+      </c>
+      <c r="C633" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>479</v>
+      </c>
+      <c r="B634" t="s">
+        <v>524</v>
+      </c>
+      <c r="C634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>479</v>
+      </c>
+      <c r="B635" t="s">
+        <v>524</v>
+      </c>
+      <c r="C635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>480</v>
+      </c>
+      <c r="B636" t="s">
+        <v>525</v>
+      </c>
+      <c r="C636" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>480</v>
+      </c>
+      <c r="B637" t="s">
+        <v>525</v>
+      </c>
+      <c r="C637" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>481</v>
+      </c>
+      <c r="B638" t="s">
+        <v>526</v>
+      </c>
+      <c r="C638" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>481</v>
+      </c>
+      <c r="B639" t="s">
+        <v>526</v>
+      </c>
+      <c r="C639" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>482</v>
+      </c>
+      <c r="B640" t="s">
+        <v>527</v>
+      </c>
+      <c r="C640" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>482</v>
+      </c>
+      <c r="B641" t="s">
+        <v>527</v>
+      </c>
+      <c r="C641" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>483</v>
+      </c>
+      <c r="B642" t="s">
+        <v>528</v>
+      </c>
+      <c r="C642" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>483</v>
+      </c>
+      <c r="B643" t="s">
+        <v>528</v>
+      </c>
+      <c r="C643" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>483</v>
+      </c>
+      <c r="B644" t="s">
+        <v>528</v>
+      </c>
+      <c r="C644" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>483</v>
+      </c>
+      <c r="B645" t="s">
+        <v>528</v>
+      </c>
+      <c r="C645" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>483</v>
+      </c>
+      <c r="B646" t="s">
+        <v>528</v>
+      </c>
+      <c r="C646" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>484</v>
+      </c>
+      <c r="B647" t="s">
+        <v>529</v>
+      </c>
+      <c r="C647" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>484</v>
+      </c>
+      <c r="B648" t="s">
+        <v>529</v>
+      </c>
+      <c r="C648" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>484</v>
+      </c>
+      <c r="B649" t="s">
+        <v>529</v>
+      </c>
+      <c r="C649" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>487</v>
+      </c>
+      <c r="B650" t="s">
+        <v>530</v>
+      </c>
+      <c r="C650" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>490</v>
+      </c>
+      <c r="B651" t="s">
+        <v>532</v>
+      </c>
+      <c r="C651" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>490</v>
+      </c>
+      <c r="B652" t="s">
+        <v>532</v>
+      </c>
+      <c r="C652" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>491</v>
+      </c>
+      <c r="B653" t="s">
+        <v>535</v>
+      </c>
+      <c r="C653" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>491</v>
+      </c>
+      <c r="B654" t="s">
+        <v>535</v>
+      </c>
+      <c r="C654" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>494</v>
+      </c>
+      <c r="B655" t="s">
+        <v>538</v>
+      </c>
+      <c r="C655" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>494</v>
+      </c>
+      <c r="B656" t="s">
+        <v>538</v>
+      </c>
+      <c r="C656" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>495</v>
+      </c>
+      <c r="B657" t="s">
+        <v>539</v>
+      </c>
+      <c r="C657" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>495</v>
+      </c>
+      <c r="B658" t="s">
+        <v>539</v>
+      </c>
+      <c r="C658" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>496</v>
+      </c>
+      <c r="B659" t="s">
+        <v>540</v>
+      </c>
+      <c r="C659" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>496</v>
+      </c>
+      <c r="B660" t="s">
+        <v>540</v>
+      </c>
+      <c r="C660" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>497</v>
+      </c>
+      <c r="B661" t="s">
+        <v>541</v>
+      </c>
+      <c r="C661" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>497</v>
+      </c>
+      <c r="B662" t="s">
+        <v>541</v>
+      </c>
+      <c r="C662" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>498</v>
+      </c>
+      <c r="B663" t="s">
+        <v>542</v>
+      </c>
+      <c r="C663" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>498</v>
+      </c>
+      <c r="B664" t="s">
+        <v>542</v>
+      </c>
+      <c r="C664" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>499</v>
+      </c>
+      <c r="B665" t="s">
+        <v>543</v>
+      </c>
+      <c r="C665" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>499</v>
+      </c>
+      <c r="B666" t="s">
+        <v>543</v>
+      </c>
+      <c r="C666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>500</v>
+      </c>
+      <c r="B667" t="s">
+        <v>544</v>
+      </c>
+      <c r="C667" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>500</v>
+      </c>
+      <c r="B668" t="s">
+        <v>544</v>
+      </c>
+      <c r="C668" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>602</v>
+      </c>
+      <c r="B669" t="s">
+        <v>545</v>
+      </c>
+      <c r="C669" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>602</v>
+      </c>
+      <c r="B670" t="s">
+        <v>545</v>
+      </c>
+      <c r="C670" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>602</v>
+      </c>
+      <c r="B671" t="s">
+        <v>545</v>
+      </c>
+      <c r="C671" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>602</v>
+      </c>
+      <c r="B672" t="s">
+        <v>545</v>
+      </c>
+      <c r="C672" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>602</v>
+      </c>
+      <c r="B673" t="s">
+        <v>545</v>
+      </c>
+      <c r="C673" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>602</v>
+      </c>
+      <c r="B674" t="s">
+        <v>545</v>
+      </c>
+      <c r="C674" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>603</v>
+      </c>
+      <c r="B675" t="s">
+        <v>552</v>
+      </c>
+      <c r="C675" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>603</v>
+      </c>
+      <c r="B676" t="s">
+        <v>552</v>
+      </c>
+      <c r="C676" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>603</v>
+      </c>
+      <c r="B677" t="s">
+        <v>552</v>
+      </c>
+      <c r="C677" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>603</v>
+      </c>
+      <c r="B678" t="s">
+        <v>552</v>
+      </c>
+      <c r="C678" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>603</v>
+      </c>
+      <c r="B679" t="s">
+        <v>552</v>
+      </c>
+      <c r="C679" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>603</v>
+      </c>
+      <c r="B680" t="s">
+        <v>552</v>
+      </c>
+      <c r="C680" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>604</v>
+      </c>
+      <c r="B681" t="s">
+        <v>559</v>
+      </c>
+      <c r="C681" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>604</v>
+      </c>
+      <c r="B682" t="s">
+        <v>559</v>
+      </c>
+      <c r="C682" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>604</v>
+      </c>
+      <c r="B683" t="s">
+        <v>559</v>
+      </c>
+      <c r="C683" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>604</v>
+      </c>
+      <c r="B684" t="s">
+        <v>559</v>
+      </c>
+      <c r="C684" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>604</v>
+      </c>
+      <c r="B685" t="s">
+        <v>559</v>
+      </c>
+      <c r="C685" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>604</v>
+      </c>
+      <c r="B686" t="s">
+        <v>559</v>
+      </c>
+      <c r="C686" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>607</v>
+      </c>
+      <c r="B687" t="s">
+        <v>560</v>
+      </c>
+      <c r="C687" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>607</v>
+      </c>
+      <c r="B688" t="s">
+        <v>560</v>
+      </c>
+      <c r="C688" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>607</v>
+      </c>
+      <c r="B689" t="s">
+        <v>560</v>
+      </c>
+      <c r="C689" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>607</v>
+      </c>
+      <c r="B690" t="s">
+        <v>560</v>
+      </c>
+      <c r="C690" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>607</v>
+      </c>
+      <c r="B691" t="s">
+        <v>560</v>
+      </c>
+      <c r="C691" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>607</v>
+      </c>
+      <c r="B692" t="s">
+        <v>560</v>
+      </c>
+      <c r="C692" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>607</v>
+      </c>
+      <c r="B693" t="s">
+        <v>560</v>
+      </c>
+      <c r="C693" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>607</v>
+      </c>
+      <c r="B694" t="s">
+        <v>560</v>
+      </c>
+      <c r="C694" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>607</v>
+      </c>
+      <c r="B695" t="s">
+        <v>560</v>
+      </c>
+      <c r="C695" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>607</v>
+      </c>
+      <c r="B696" t="s">
+        <v>560</v>
+      </c>
+      <c r="C696" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>607</v>
+      </c>
+      <c r="B697" t="s">
+        <v>560</v>
+      </c>
+      <c r="C697" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>607</v>
+      </c>
+      <c r="B698" t="s">
+        <v>560</v>
+      </c>
+      <c r="C698" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>607</v>
+      </c>
+      <c r="B699" t="s">
+        <v>560</v>
+      </c>
+      <c r="C699" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>607</v>
+      </c>
+      <c r="B700" t="s">
+        <v>560</v>
+      </c>
+      <c r="C700" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>607</v>
+      </c>
+      <c r="B701" t="s">
+        <v>560</v>
+      </c>
+      <c r="C701" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>607</v>
+      </c>
+      <c r="B702" t="s">
+        <v>560</v>
+      </c>
+      <c r="C702" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>608</v>
+      </c>
+      <c r="B703" t="s">
+        <v>577</v>
+      </c>
+      <c r="C703" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704">
         <v>611</v>
       </c>
-      <c r="B200" t="s">
-        <v>299</v>
-      </c>
-      <c r="C200" t="s">
-        <v>298</v>
+      <c r="B704" t="s">
+        <v>579</v>
+      </c>
+      <c r="C704" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="17" fitToWidth="5" orientation="landscape"/>
+  <pageSetup scale="26" fitToHeight="50" orientation="landscape"/>
 </worksheet>
 </file>
--- a/tools/rule_extend.xlsx
+++ b/tools/rule_extend.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavor/program/d3-node/tools/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64BE6E0A-51EE-5542-B863-5FB9D74E486C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="580">
   <si>
     <t>ID</t>
   </si>
@@ -1765,9 +1760,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1778,37 +1778,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -2098,23 +2089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>131</v>
       </c>
@@ -2136,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>131</v>
       </c>
@@ -2147,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>132</v>
       </c>
@@ -2158,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>132</v>
       </c>
@@ -2169,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>134</v>
       </c>
@@ -2180,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>134</v>
       </c>
@@ -2191,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>135</v>
       </c>
@@ -2202,7 +2189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>135</v>
       </c>
@@ -2213,7 +2200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2224,7 +2211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>136</v>
       </c>
@@ -2235,7 +2222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>137</v>
       </c>
@@ -2246,7 +2233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>137</v>
       </c>
@@ -2257,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>138</v>
       </c>
@@ -2268,7 +2255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>138</v>
       </c>
@@ -2279,7 +2266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>140</v>
       </c>
@@ -2290,7 +2277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>140</v>
       </c>
@@ -2301,7 +2288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>140</v>
       </c>
@@ -2312,7 +2299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>141</v>
       </c>
@@ -2323,7 +2310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>141</v>
       </c>
@@ -2334,7 +2321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>142</v>
       </c>
@@ -2345,7 +2332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>142</v>
       </c>
@@ -2356,7 +2343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>145</v>
       </c>
@@ -2367,7 +2354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>145</v>
       </c>
@@ -2378,7 +2365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>145</v>
       </c>
@@ -2389,7 +2376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>146</v>
       </c>
@@ -2400,7 +2387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>146</v>
       </c>
@@ -2411,7 +2398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>146</v>
       </c>
@@ -2422,7 +2409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>148</v>
       </c>
@@ -2433,7 +2420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>148</v>
       </c>
@@ -2444,7 +2431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>148</v>
       </c>
@@ -2455,7 +2442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>151</v>
       </c>
@@ -2466,7 +2453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>151</v>
       </c>
@@ -2477,7 +2464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>152</v>
       </c>
@@ -2488,7 +2475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>152</v>
       </c>
@@ -2499,7 +2486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>152</v>
       </c>
@@ -2510,7 +2497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>153</v>
       </c>
@@ -2521,7 +2508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>153</v>
       </c>
@@ -2532,7 +2519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>153</v>
       </c>
@@ -2543,7 +2530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>154</v>
       </c>
@@ -2554,7 +2541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>154</v>
       </c>
@@ -2565,7 +2552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>154</v>
       </c>
@@ -2576,7 +2563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>155</v>
       </c>
@@ -2587,7 +2574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>155</v>
       </c>
@@ -2598,7 +2585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>155</v>
       </c>
@@ -2609,7 +2596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>156</v>
       </c>
@@ -2620,7 +2607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>156</v>
       </c>
@@ -2631,7 +2618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>157</v>
       </c>
@@ -2642,7 +2629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>157</v>
       </c>
@@ -2653,7 +2640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>158</v>
       </c>
@@ -2664,7 +2651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>158</v>
       </c>
@@ -2675,7 +2662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>159</v>
       </c>
@@ -2686,7 +2673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>159</v>
       </c>
@@ -2697,7 +2684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>165</v>
       </c>
@@ -2708,7 +2695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>165</v>
       </c>
@@ -2719,7 +2706,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>165</v>
       </c>
@@ -2730,7 +2717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>165</v>
       </c>
@@ -2741,7 +2728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>165</v>
       </c>
@@ -2752,7 +2739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>165</v>
       </c>
@@ -2763,7 +2750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>165</v>
       </c>
@@ -2774,7 +2761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>165</v>
       </c>
@@ -2785,7 +2772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>165</v>
       </c>
@@ -2796,7 +2783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>165</v>
       </c>
@@ -2807,7 +2794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>165</v>
       </c>
@@ -2818,7 +2805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>165</v>
       </c>
@@ -2829,7 +2816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>167</v>
       </c>
@@ -2840,7 +2827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>167</v>
       </c>
@@ -2851,7 +2838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>167</v>
       </c>
@@ -2862,7 +2849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>168</v>
       </c>
@@ -2873,7 +2860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>168</v>
       </c>
@@ -2884,7 +2871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>170</v>
       </c>
@@ -2895,7 +2882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>173</v>
       </c>
@@ -2906,7 +2893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>173</v>
       </c>
@@ -2917,7 +2904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>174</v>
       </c>
@@ -2928,7 +2915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>174</v>
       </c>
@@ -2939,7 +2926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>176</v>
       </c>
@@ -2950,7 +2937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>176</v>
       </c>
@@ -2961,7 +2948,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>176</v>
       </c>
@@ -2972,7 +2959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>177</v>
       </c>
@@ -2983,7 +2970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>177</v>
       </c>
@@ -2994,7 +2981,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>177</v>
       </c>
@@ -3005,7 +2992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>178</v>
       </c>
@@ -3016,7 +3003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>178</v>
       </c>
@@ -3027,7 +3014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>178</v>
       </c>
@@ -3038,7 +3025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>179</v>
       </c>
@@ -3049,7 +3036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>179</v>
       </c>
@@ -3060,7 +3047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>179</v>
       </c>
@@ -3071,7 +3058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>180</v>
       </c>
@@ -3082,7 +3069,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>180</v>
       </c>
@@ -3093,7 +3080,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>180</v>
       </c>
@@ -3104,7 +3091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>181</v>
       </c>
@@ -3115,7 +3102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>181</v>
       </c>
@@ -3126,7 +3113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>181</v>
       </c>
@@ -3137,7 +3124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>182</v>
       </c>
@@ -3148,7 +3135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>182</v>
       </c>
@@ -3159,7 +3146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>182</v>
       </c>
@@ -3170,7 +3157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>183</v>
       </c>
@@ -3181,7 +3168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>183</v>
       </c>
@@ -3192,7 +3179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>183</v>
       </c>
@@ -3203,7 +3190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>184</v>
       </c>
@@ -3214,7 +3201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>184</v>
       </c>
@@ -3225,7 +3212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>185</v>
       </c>
@@ -3236,7 +3223,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>185</v>
       </c>
@@ -3247,7 +3234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>185</v>
       </c>
@@ -3258,7 +3245,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>186</v>
       </c>
@@ -3269,7 +3256,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>186</v>
       </c>
@@ -3280,7 +3267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>186</v>
       </c>
@@ -3291,7 +3278,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>189</v>
       </c>
@@ -3302,7 +3289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>189</v>
       </c>
@@ -3313,7 +3300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>189</v>
       </c>
@@ -3324,7 +3311,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>192</v>
       </c>
@@ -3335,7 +3322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>192</v>
       </c>
@@ -3346,7 +3333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>192</v>
       </c>
@@ -3357,7 +3344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>195</v>
       </c>
@@ -3368,7 +3355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>195</v>
       </c>
@@ -3379,7 +3366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>195</v>
       </c>
@@ -3390,7 +3377,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>195</v>
       </c>
@@ -3401,7 +3388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>197</v>
       </c>
@@ -3412,7 +3399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>197</v>
       </c>
@@ -3423,7 +3410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>197</v>
       </c>
@@ -3434,7 +3421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>197</v>
       </c>
@@ -3445,7 +3432,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>199</v>
       </c>
@@ -3456,7 +3443,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>199</v>
       </c>
@@ -3467,7 +3454,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>199</v>
       </c>
@@ -3478,7 +3465,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>199</v>
       </c>
@@ -3489,7 +3476,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>199</v>
       </c>
@@ -3500,7 +3487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>199</v>
       </c>
@@ -3511,7 +3498,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>199</v>
       </c>
@@ -3522,7 +3509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>202</v>
       </c>
@@ -3533,7 +3520,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>202</v>
       </c>
@@ -3544,7 +3531,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>202</v>
       </c>
@@ -3555,7 +3542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>202</v>
       </c>
@@ -3566,7 +3553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>202</v>
       </c>
@@ -3577,7 +3564,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>202</v>
       </c>
@@ -3588,7 +3575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -3599,7 +3586,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>202</v>
       </c>
@@ -3610,7 +3597,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>202</v>
       </c>
@@ -3621,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>208</v>
       </c>
@@ -3632,7 +3619,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>208</v>
       </c>
@@ -3643,7 +3630,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>208</v>
       </c>
@@ -3654,7 +3641,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>208</v>
       </c>
@@ -3665,7 +3652,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>208</v>
       </c>
@@ -3676,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>208</v>
       </c>
@@ -3687,7 +3674,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>208</v>
       </c>
@@ -3698,7 +3685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>208</v>
       </c>
@@ -3709,7 +3696,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>208</v>
       </c>
@@ -3720,7 +3707,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>208</v>
       </c>
@@ -3731,7 +3718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>208</v>
       </c>
@@ -3742,7 +3729,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>208</v>
       </c>
@@ -3753,7 +3740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>208</v>
       </c>
@@ -3764,7 +3751,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>208</v>
       </c>
@@ -3775,7 +3762,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>208</v>
       </c>
@@ -3786,7 +3773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3797,7 +3784,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>208</v>
       </c>
@@ -3808,7 +3795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>208</v>
       </c>
@@ -3819,7 +3806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>208</v>
       </c>
@@ -3830,7 +3817,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>208</v>
       </c>
@@ -3841,7 +3828,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>208</v>
       </c>
@@ -3852,7 +3839,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>209</v>
       </c>
@@ -3863,7 +3850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>209</v>
       </c>
@@ -3874,7 +3861,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>212</v>
       </c>
@@ -3885,7 +3872,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>212</v>
       </c>
@@ -3896,7 +3883,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>212</v>
       </c>
@@ -3907,7 +3894,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>212</v>
       </c>
@@ -3918,7 +3905,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>212</v>
       </c>
@@ -3929,7 +3916,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>212</v>
       </c>
@@ -3940,7 +3927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>212</v>
       </c>
@@ -3951,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>213</v>
       </c>
@@ -3962,7 +3949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>213</v>
       </c>
@@ -3973,7 +3960,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>213</v>
       </c>
@@ -3984,7 +3971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>213</v>
       </c>
@@ -3995,7 +3982,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>213</v>
       </c>
@@ -4006,7 +3993,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>214</v>
       </c>
@@ -4017,7 +4004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>214</v>
       </c>
@@ -4028,7 +4015,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>214</v>
       </c>
@@ -4039,7 +4026,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>214</v>
       </c>
@@ -4050,7 +4037,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>214</v>
       </c>
@@ -4061,7 +4048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>214</v>
       </c>
@@ -4072,7 +4059,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>214</v>
       </c>
@@ -4083,7 +4070,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>214</v>
       </c>
@@ -4094,7 +4081,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>214</v>
       </c>
@@ -4105,7 +4092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>214</v>
       </c>
@@ -4116,7 +4103,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>222</v>
       </c>
@@ -4127,7 +4114,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>223</v>
       </c>
@@ -4138,7 +4125,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>223</v>
       </c>
@@ -4149,7 +4136,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>223</v>
       </c>
@@ -4160,7 +4147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>223</v>
       </c>
@@ -4171,7 +4158,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>225</v>
       </c>
@@ -4182,7 +4169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>225</v>
       </c>
@@ -4193,7 +4180,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>258</v>
       </c>
@@ -4204,7 +4191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>258</v>
       </c>
@@ -4215,7 +4202,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>258</v>
       </c>
@@ -4226,7 +4213,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>258</v>
       </c>
@@ -4237,7 +4224,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>258</v>
       </c>
@@ -4248,7 +4235,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>258</v>
       </c>
@@ -4259,7 +4246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>260</v>
       </c>
@@ -4270,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>260</v>
       </c>
@@ -4281,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>262</v>
       </c>
@@ -4292,7 +4279,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>262</v>
       </c>
@@ -4303,7 +4290,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>262</v>
       </c>
@@ -4314,7 +4301,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>262</v>
       </c>
@@ -4325,7 +4312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>262</v>
       </c>
@@ -4336,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>266</v>
       </c>
@@ -4347,7 +4334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>266</v>
       </c>
@@ -4358,7 +4345,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>266</v>
       </c>
@@ -4369,7 +4356,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>266</v>
       </c>
@@ -4380,7 +4367,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>266</v>
       </c>
@@ -4391,7 +4378,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>267</v>
       </c>
@@ -4402,7 +4389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4413,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>268</v>
       </c>
@@ -4424,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>300</v>
       </c>
@@ -4435,7 +4422,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>300</v>
       </c>
@@ -4446,7 +4433,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>300</v>
       </c>
@@ -4457,7 +4444,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>300</v>
       </c>
@@ -4468,7 +4455,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>301</v>
       </c>
@@ -4479,7 +4466,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>301</v>
       </c>
@@ -4490,7 +4477,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>301</v>
       </c>
@@ -4501,7 +4488,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>301</v>
       </c>
@@ -4512,7 +4499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>302</v>
       </c>
@@ -4523,7 +4510,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>302</v>
       </c>
@@ -4534,7 +4521,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>302</v>
       </c>
@@ -4545,7 +4532,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>303</v>
       </c>
@@ -4556,7 +4543,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>303</v>
       </c>
@@ -4567,7 +4554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>303</v>
       </c>
@@ -4578,7 +4565,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>304</v>
       </c>
@@ -4589,7 +4576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>304</v>
       </c>
@@ -4600,7 +4587,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>304</v>
       </c>
@@ -4611,7 +4598,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>304</v>
       </c>
@@ -4622,7 +4609,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>307</v>
       </c>
@@ -4633,7 +4620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>307</v>
       </c>
@@ -4644,7 +4631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>307</v>
       </c>
@@ -4655,7 +4642,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>307</v>
       </c>
@@ -4666,7 +4653,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>307</v>
       </c>
@@ -4677,7 +4664,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>308</v>
       </c>
@@ -4688,7 +4675,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>308</v>
       </c>
@@ -4699,7 +4686,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>308</v>
       </c>
@@ -4710,7 +4697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>308</v>
       </c>
@@ -4721,7 +4708,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>308</v>
       </c>
@@ -4732,7 +4719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>308</v>
       </c>
@@ -4743,7 +4730,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>308</v>
       </c>
@@ -4754,7 +4741,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>309</v>
       </c>
@@ -4765,7 +4752,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>309</v>
       </c>
@@ -4776,7 +4763,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>309</v>
       </c>
@@ -4787,7 +4774,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>309</v>
       </c>
@@ -4798,7 +4785,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>309</v>
       </c>
@@ -4809,7 +4796,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>309</v>
       </c>
@@ -4820,7 +4807,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>310</v>
       </c>
@@ -4831,7 +4818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>310</v>
       </c>
@@ -4842,7 +4829,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>311</v>
       </c>
@@ -4853,7 +4840,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>311</v>
       </c>
@@ -4864,7 +4851,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>311</v>
       </c>
@@ -4875,7 +4862,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>312</v>
       </c>
@@ -4886,7 +4873,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>312</v>
       </c>
@@ -4897,7 +4884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>312</v>
       </c>
@@ -4908,7 +4895,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>312</v>
       </c>
@@ -4919,7 +4906,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>313</v>
       </c>
@@ -4930,7 +4917,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>313</v>
       </c>
@@ -4941,7 +4928,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>313</v>
       </c>
@@ -4952,7 +4939,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>316</v>
       </c>
@@ -4963,7 +4950,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>316</v>
       </c>
@@ -4974,7 +4961,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>316</v>
       </c>
@@ -4985,7 +4972,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>317</v>
       </c>
@@ -4996,7 +4983,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>317</v>
       </c>
@@ -5007,7 +4994,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>317</v>
       </c>
@@ -5018,7 +5005,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>319</v>
       </c>
@@ -5029,7 +5016,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>319</v>
       </c>
@@ -5040,7 +5027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>321</v>
       </c>
@@ -5051,7 +5038,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>321</v>
       </c>
@@ -5062,7 +5049,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>321</v>
       </c>
@@ -5073,7 +5060,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>321</v>
       </c>
@@ -5084,7 +5071,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>321</v>
       </c>
@@ -5095,7 +5082,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>322</v>
       </c>
@@ -5106,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>323</v>
       </c>
@@ -5117,7 +5104,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>323</v>
       </c>
@@ -5128,7 +5115,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>323</v>
       </c>
@@ -5139,7 +5126,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>324</v>
       </c>
@@ -5150,7 +5137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>324</v>
       </c>
@@ -5161,7 +5148,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>324</v>
       </c>
@@ -5172,7 +5159,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279">
         <v>324</v>
       </c>
@@ -5183,7 +5170,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>324</v>
       </c>
@@ -5194,7 +5181,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281">
         <v>324</v>
       </c>
@@ -5205,7 +5192,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282">
         <v>324</v>
       </c>
@@ -5216,7 +5203,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>324</v>
       </c>
@@ -5227,7 +5214,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>324</v>
       </c>
@@ -5238,7 +5225,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>328</v>
       </c>
@@ -5249,7 +5236,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>328</v>
       </c>
@@ -5260,7 +5247,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>328</v>
       </c>
@@ -5271,7 +5258,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>329</v>
       </c>
@@ -5282,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289">
         <v>330</v>
       </c>
@@ -5293,7 +5280,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>330</v>
       </c>
@@ -5304,7 +5291,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291">
         <v>330</v>
       </c>
@@ -5315,7 +5302,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>330</v>
       </c>
@@ -5326,7 +5313,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>330</v>
       </c>
@@ -5337,7 +5324,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>330</v>
       </c>
@@ -5348,7 +5335,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>330</v>
       </c>
@@ -5359,7 +5346,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>330</v>
       </c>
@@ -5370,7 +5357,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>330</v>
       </c>
@@ -5381,7 +5368,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298">
         <v>330</v>
       </c>
@@ -5392,7 +5379,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>330</v>
       </c>
@@ -5403,7 +5390,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>330</v>
       </c>
@@ -5414,7 +5401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>330</v>
       </c>
@@ -5425,7 +5412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>330</v>
       </c>
@@ -5436,7 +5423,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303">
         <v>331</v>
       </c>
@@ -5447,7 +5434,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304">
         <v>332</v>
       </c>
@@ -5458,7 +5445,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305">
         <v>333</v>
       </c>
@@ -5469,7 +5456,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306">
         <v>334</v>
       </c>
@@ -5480,7 +5467,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307">
         <v>335</v>
       </c>
@@ -5491,7 +5478,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>335</v>
       </c>
@@ -5502,7 +5489,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>335</v>
       </c>
@@ -5513,7 +5500,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310">
         <v>335</v>
       </c>
@@ -5524,7 +5511,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>335</v>
       </c>
@@ -5535,7 +5522,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312">
         <v>335</v>
       </c>
@@ -5546,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313">
         <v>336</v>
       </c>
@@ -5557,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>344</v>
       </c>
@@ -5568,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315">
         <v>347</v>
       </c>
@@ -5579,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316">
         <v>348</v>
       </c>
@@ -5590,7 +5577,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317">
         <v>348</v>
       </c>
@@ -5601,7 +5588,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318">
         <v>348</v>
       </c>
@@ -5612,7 +5599,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319">
         <v>350</v>
       </c>
@@ -5623,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320">
         <v>350</v>
       </c>
@@ -5634,7 +5621,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321">
         <v>350</v>
       </c>
@@ -5645,7 +5632,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>350</v>
       </c>
@@ -5656,7 +5643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>351</v>
       </c>
@@ -5667,7 +5654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324">
         <v>354</v>
       </c>
@@ -5678,7 +5665,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325">
         <v>354</v>
       </c>
@@ -5689,7 +5676,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>354</v>
       </c>
@@ -5700,7 +5687,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327">
         <v>354</v>
       </c>
@@ -5711,7 +5698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328">
         <v>354</v>
       </c>
@@ -5722,7 +5709,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>355</v>
       </c>
@@ -5733,7 +5720,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>355</v>
       </c>
@@ -5744,7 +5731,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>355</v>
       </c>
@@ -5755,7 +5742,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>355</v>
       </c>
@@ -5766,7 +5753,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333">
         <v>355</v>
       </c>
@@ -5777,7 +5764,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334">
         <v>355</v>
       </c>
@@ -5788,7 +5775,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335">
         <v>355</v>
       </c>
@@ -5799,7 +5786,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336">
         <v>356</v>
       </c>
@@ -5810,7 +5797,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337">
         <v>356</v>
       </c>
@@ -5821,7 +5808,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338">
         <v>356</v>
       </c>
@@ -5832,7 +5819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339">
         <v>356</v>
       </c>
@@ -5843,7 +5830,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340">
         <v>356</v>
       </c>
@@ -5854,7 +5841,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341">
         <v>356</v>
       </c>
@@ -5865,7 +5852,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342">
         <v>357</v>
       </c>
@@ -5876,7 +5863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343">
         <v>357</v>
       </c>
@@ -5887,7 +5874,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344">
         <v>358</v>
       </c>
@@ -5898,7 +5885,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345">
         <v>358</v>
       </c>
@@ -5909,7 +5896,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346">
         <v>358</v>
       </c>
@@ -5920,7 +5907,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347">
         <v>359</v>
       </c>
@@ -5931,7 +5918,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348">
         <v>359</v>
       </c>
@@ -5942,7 +5929,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349">
         <v>359</v>
       </c>
@@ -5953,7 +5940,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>359</v>
       </c>
@@ -5964,7 +5951,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351">
         <v>360</v>
       </c>
@@ -5975,7 +5962,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352">
         <v>360</v>
       </c>
@@ -5986,7 +5973,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353">
         <v>360</v>
       </c>
@@ -5997,7 +5984,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>361</v>
       </c>
@@ -6008,7 +5995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>361</v>
       </c>
@@ -6019,7 +6006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356">
         <v>361</v>
       </c>
@@ -6030,7 +6017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>361</v>
       </c>
@@ -6041,7 +6028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358">
         <v>361</v>
       </c>
@@ -6052,7 +6039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>361</v>
       </c>
@@ -6063,7 +6050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360">
         <v>361</v>
       </c>
@@ -6074,7 +6061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361">
         <v>361</v>
       </c>
@@ -6085,7 +6072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -6096,7 +6083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -6107,7 +6094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364">
         <v>361</v>
       </c>
@@ -6118,7 +6105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365">
         <v>361</v>
       </c>
@@ -6129,7 +6116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366">
         <v>363</v>
       </c>
@@ -6140,7 +6127,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367">
         <v>363</v>
       </c>
@@ -6151,7 +6138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>363</v>
       </c>
@@ -6162,7 +6149,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>363</v>
       </c>
@@ -6173,7 +6160,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>364</v>
       </c>
@@ -6184,7 +6171,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371">
         <v>364</v>
       </c>
@@ -6195,7 +6182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372">
         <v>364</v>
       </c>
@@ -6206,7 +6193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>364</v>
       </c>
@@ -6217,7 +6204,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374">
         <v>365</v>
       </c>
@@ -6228,7 +6215,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375">
         <v>365</v>
       </c>
@@ -6239,7 +6226,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376">
         <v>365</v>
       </c>
@@ -6250,7 +6237,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377">
         <v>366</v>
       </c>
@@ -6261,7 +6248,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378">
         <v>366</v>
       </c>
@@ -6272,7 +6259,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>366</v>
       </c>
@@ -6283,7 +6270,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380">
         <v>366</v>
       </c>
@@ -6294,7 +6281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>373</v>
       </c>
@@ -6305,7 +6292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382">
         <v>373</v>
       </c>
@@ -6316,7 +6303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383">
         <v>374</v>
       </c>
@@ -6327,7 +6314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384">
         <v>374</v>
       </c>
@@ -6338,7 +6325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="A385">
         <v>375</v>
       </c>
@@ -6349,7 +6336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>375</v>
       </c>
@@ -6360,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>376</v>
       </c>
@@ -6371,7 +6358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>376</v>
       </c>
@@ -6382,7 +6369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="A389">
         <v>377</v>
       </c>
@@ -6393,7 +6380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="A390">
         <v>377</v>
       </c>
@@ -6404,7 +6391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>378</v>
       </c>
@@ -6415,7 +6402,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3">
       <c r="A392">
         <v>378</v>
       </c>
@@ -6426,7 +6413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3">
       <c r="A393">
         <v>378</v>
       </c>
@@ -6437,7 +6424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>380</v>
       </c>
@@ -6448,7 +6435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3">
       <c r="A395">
         <v>380</v>
       </c>
@@ -6459,7 +6446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>380</v>
       </c>
@@ -6470,7 +6457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3">
       <c r="A397">
         <v>381</v>
       </c>
@@ -6481,7 +6468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>381</v>
       </c>
@@ -6492,7 +6479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="A399">
         <v>381</v>
       </c>
@@ -6503,7 +6490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="A400">
         <v>382</v>
       </c>
@@ -6514,7 +6501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>382</v>
       </c>
@@ -6525,7 +6512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>382</v>
       </c>
@@ -6536,7 +6523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>383</v>
       </c>
@@ -6547,7 +6534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>383</v>
       </c>
@@ -6558,7 +6545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="A405">
         <v>384</v>
       </c>
@@ -6569,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3">
       <c r="A406">
         <v>384</v>
       </c>
@@ -6580,7 +6567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>385</v>
       </c>
@@ -6591,7 +6578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>385</v>
       </c>
@@ -6602,7 +6589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="A409">
         <v>386</v>
       </c>
@@ -6613,7 +6600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410">
         <v>386</v>
       </c>
@@ -6624,7 +6611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>389</v>
       </c>
@@ -6635,7 +6622,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>390</v>
       </c>
@@ -6646,7 +6633,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>390</v>
       </c>
@@ -6657,7 +6644,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>390</v>
       </c>
@@ -6668,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="A415">
         <v>391</v>
       </c>
@@ -6679,7 +6666,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>391</v>
       </c>
@@ -6690,7 +6677,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>392</v>
       </c>
@@ -6701,7 +6688,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>392</v>
       </c>
@@ -6712,7 +6699,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>393</v>
       </c>
@@ -6723,7 +6710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>393</v>
       </c>
@@ -6734,7 +6721,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>393</v>
       </c>
@@ -6745,7 +6732,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>393</v>
       </c>
@@ -6756,7 +6743,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423">
         <v>393</v>
       </c>
@@ -6767,7 +6754,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="A424">
         <v>393</v>
       </c>
@@ -6778,7 +6765,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="A425">
         <v>393</v>
       </c>
@@ -6789,7 +6776,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426">
         <v>393</v>
       </c>
@@ -6800,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427">
         <v>394</v>
       </c>
@@ -6811,7 +6798,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="A428">
         <v>394</v>
       </c>
@@ -6822,7 +6809,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="A429">
         <v>394</v>
       </c>
@@ -6833,7 +6820,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="A430">
         <v>396</v>
       </c>
@@ -6844,7 +6831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="A431">
         <v>396</v>
       </c>
@@ -6855,7 +6842,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="A432">
         <v>396</v>
       </c>
@@ -6866,7 +6853,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3">
       <c r="A433">
         <v>397</v>
       </c>
@@ -6877,7 +6864,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434">
         <v>397</v>
       </c>
@@ -6888,7 +6875,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="A435">
         <v>397</v>
       </c>
@@ -6899,7 +6886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="A436">
         <v>397</v>
       </c>
@@ -6910,7 +6897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437">
         <v>397</v>
       </c>
@@ -6921,7 +6908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438">
         <v>397</v>
       </c>
@@ -6932,7 +6919,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="A439">
         <v>397</v>
       </c>
@@ -6943,7 +6930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="A440">
         <v>397</v>
       </c>
@@ -6954,7 +6941,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="A441">
         <v>397</v>
       </c>
@@ -6965,7 +6952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="A442">
         <v>397</v>
       </c>
@@ -6976,7 +6963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443">
         <v>397</v>
       </c>
@@ -6987,7 +6974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="A444">
         <v>398</v>
       </c>
@@ -6998,7 +6985,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="A445">
         <v>398</v>
       </c>
@@ -7009,7 +6996,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446">
         <v>398</v>
       </c>
@@ -7020,7 +7007,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447">
         <v>398</v>
       </c>
@@ -7031,7 +7018,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448">
         <v>398</v>
       </c>
@@ -7042,7 +7029,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449">
         <v>398</v>
       </c>
@@ -7053,7 +7040,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="A450">
         <v>398</v>
       </c>
@@ -7064,7 +7051,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3">
       <c r="A451">
         <v>398</v>
       </c>
@@ -7075,7 +7062,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3">
       <c r="A452">
         <v>398</v>
       </c>
@@ -7086,7 +7073,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3">
       <c r="A453">
         <v>398</v>
       </c>
@@ -7097,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3">
       <c r="A454">
         <v>399</v>
       </c>
@@ -7108,7 +7095,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3">
       <c r="A455">
         <v>399</v>
       </c>
@@ -7119,7 +7106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3">
       <c r="A456">
         <v>399</v>
       </c>
@@ -7130,7 +7117,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3">
       <c r="A457">
         <v>399</v>
       </c>
@@ -7141,7 +7128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3">
       <c r="A458">
         <v>399</v>
       </c>
@@ -7152,7 +7139,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3">
       <c r="A459">
         <v>399</v>
       </c>
@@ -7163,7 +7150,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3">
       <c r="A460">
         <v>399</v>
       </c>
@@ -7174,7 +7161,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3">
       <c r="A461">
         <v>399</v>
       </c>
@@ -7185,7 +7172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3">
       <c r="A462">
         <v>399</v>
       </c>
@@ -7196,7 +7183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="A463">
         <v>399</v>
       </c>
@@ -7207,7 +7194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464">
         <v>399</v>
       </c>
@@ -7218,7 +7205,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3">
       <c r="A465">
         <v>399</v>
       </c>
@@ -7229,7 +7216,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3">
       <c r="A466">
         <v>399</v>
       </c>
@@ -7240,7 +7227,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3">
       <c r="A467">
         <v>399</v>
       </c>
@@ -7251,7 +7238,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3">
       <c r="A468">
         <v>399</v>
       </c>
@@ -7262,7 +7249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3">
       <c r="A469">
         <v>399</v>
       </c>
@@ -7273,7 +7260,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3">
       <c r="A470">
         <v>399</v>
       </c>
@@ -7284,7 +7271,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3">
       <c r="A471">
         <v>399</v>
       </c>
@@ -7295,7 +7282,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3">
       <c r="A472">
         <v>399</v>
       </c>
@@ -7306,7 +7293,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3">
       <c r="A473">
         <v>399</v>
       </c>
@@ -7317,7 +7304,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3">
       <c r="A474">
         <v>399</v>
       </c>
@@ -7328,7 +7315,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3">
       <c r="A475">
         <v>399</v>
       </c>
@@ -7339,7 +7326,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3">
       <c r="A476">
         <v>399</v>
       </c>
@@ -7350,7 +7337,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3">
       <c r="A477">
         <v>399</v>
       </c>
@@ -7361,7 +7348,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3">
       <c r="A478">
         <v>399</v>
       </c>
@@ -7372,7 +7359,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3">
       <c r="A479">
         <v>399</v>
       </c>
@@ -7383,7 +7370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3">
       <c r="A480">
         <v>399</v>
       </c>
@@ -7394,7 +7381,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3">
       <c r="A481">
         <v>399</v>
       </c>
@@ -7405,7 +7392,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3">
       <c r="A482">
         <v>399</v>
       </c>
@@ -7416,7 +7403,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="A483">
         <v>399</v>
       </c>
@@ -7427,7 +7414,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3">
       <c r="A484">
         <v>402</v>
       </c>
@@ -7438,7 +7425,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3">
       <c r="A485">
         <v>403</v>
       </c>
@@ -7449,7 +7436,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3">
       <c r="A486">
         <v>403</v>
       </c>
@@ -7460,7 +7447,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3">
       <c r="A487">
         <v>407</v>
       </c>
@@ -7471,7 +7458,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3">
       <c r="A488">
         <v>407</v>
       </c>
@@ -7482,7 +7469,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3">
       <c r="A489">
         <v>407</v>
       </c>
@@ -7493,7 +7480,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3">
       <c r="A490">
         <v>407</v>
       </c>
@@ -7504,7 +7491,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3">
       <c r="A491">
         <v>407</v>
       </c>
@@ -7515,7 +7502,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3">
       <c r="A492">
         <v>408</v>
       </c>
@@ -7526,7 +7513,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3">
       <c r="A493">
         <v>408</v>
       </c>
@@ -7537,7 +7524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3">
       <c r="A494">
         <v>408</v>
       </c>
@@ -7548,7 +7535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3">
       <c r="A495">
         <v>408</v>
       </c>
@@ -7559,7 +7546,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3">
       <c r="A496">
         <v>408</v>
       </c>
@@ -7570,7 +7557,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3">
       <c r="A497">
         <v>408</v>
       </c>
@@ -7581,7 +7568,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3">
       <c r="A498">
         <v>408</v>
       </c>
@@ -7592,7 +7579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3">
       <c r="A499">
         <v>409</v>
       </c>
@@ -7603,7 +7590,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3">
       <c r="A500">
         <v>409</v>
       </c>
@@ -7614,7 +7601,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3">
       <c r="A501">
         <v>409</v>
       </c>
@@ -7625,7 +7612,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3">
       <c r="A502">
         <v>409</v>
       </c>
@@ -7636,7 +7623,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3">
       <c r="A503">
         <v>409</v>
       </c>
@@ -7647,7 +7634,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3">
       <c r="A504">
         <v>409</v>
       </c>
@@ -7658,7 +7645,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3">
       <c r="A505">
         <v>410</v>
       </c>
@@ -7669,7 +7656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3">
       <c r="A506">
         <v>410</v>
       </c>
@@ -7680,7 +7667,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3">
       <c r="A507">
         <v>411</v>
       </c>
@@ -7691,7 +7678,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3">
       <c r="A508">
         <v>411</v>
       </c>
@@ -7702,7 +7689,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3">
       <c r="A509">
         <v>411</v>
       </c>
@@ -7713,7 +7700,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3">
       <c r="A510">
         <v>412</v>
       </c>
@@ -7724,7 +7711,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3">
       <c r="A511">
         <v>412</v>
       </c>
@@ -7735,7 +7722,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3">
       <c r="A512">
         <v>412</v>
       </c>
@@ -7746,7 +7733,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3">
       <c r="A513">
         <v>412</v>
       </c>
@@ -7757,7 +7744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3">
       <c r="A514">
         <v>413</v>
       </c>
@@ -7768,7 +7755,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3">
       <c r="A515">
         <v>413</v>
       </c>
@@ -7779,7 +7766,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3">
       <c r="A516">
         <v>413</v>
       </c>
@@ -7790,7 +7777,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3">
       <c r="A517">
         <v>418</v>
       </c>
@@ -7801,7 +7788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3">
       <c r="A518">
         <v>418</v>
       </c>
@@ -7812,7 +7799,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3">
       <c r="A519">
         <v>418</v>
       </c>
@@ -7823,7 +7810,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3">
       <c r="A520">
         <v>418</v>
       </c>
@@ -7834,7 +7821,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3">
       <c r="A521">
         <v>419</v>
       </c>
@@ -7845,7 +7832,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3">
       <c r="A522">
         <v>419</v>
       </c>
@@ -7856,7 +7843,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3">
       <c r="A523">
         <v>419</v>
       </c>
@@ -7867,7 +7854,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3">
       <c r="A524">
         <v>419</v>
       </c>
@@ -7878,7 +7865,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3">
       <c r="A525">
         <v>420</v>
       </c>
@@ -7889,7 +7876,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3">
       <c r="A526">
         <v>420</v>
       </c>
@@ -7900,7 +7887,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3">
       <c r="A527">
         <v>420</v>
       </c>
@@ -7911,7 +7898,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3">
       <c r="A528">
         <v>421</v>
       </c>
@@ -7922,7 +7909,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3">
       <c r="A529">
         <v>421</v>
       </c>
@@ -7933,7 +7920,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3">
       <c r="A530">
         <v>421</v>
       </c>
@@ -7944,7 +7931,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3">
       <c r="A531">
         <v>421</v>
       </c>
@@ -7955,7 +7942,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3">
       <c r="A532">
         <v>433</v>
       </c>
@@ -7966,7 +7953,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3">
       <c r="A533">
         <v>433</v>
       </c>
@@ -7977,7 +7964,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3">
       <c r="A534">
         <v>434</v>
       </c>
@@ -7988,7 +7975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3">
       <c r="A535">
         <v>434</v>
       </c>
@@ -7999,7 +7986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3">
       <c r="A536">
         <v>434</v>
       </c>
@@ -8010,7 +7997,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3">
       <c r="A537">
         <v>435</v>
       </c>
@@ -8021,7 +8008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3">
       <c r="A538">
         <v>435</v>
       </c>
@@ -8032,7 +8019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3">
       <c r="A539">
         <v>436</v>
       </c>
@@ -8043,7 +8030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3">
       <c r="A540">
         <v>437</v>
       </c>
@@ -8054,7 +8041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3">
       <c r="A541">
         <v>437</v>
       </c>
@@ -8065,7 +8052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3">
       <c r="A542">
         <v>445</v>
       </c>
@@ -8076,7 +8063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3">
       <c r="A543">
         <v>445</v>
       </c>
@@ -8087,7 +8074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3">
       <c r="A544">
         <v>446</v>
       </c>
@@ -8098,7 +8085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3">
       <c r="A545">
         <v>446</v>
       </c>
@@ -8109,7 +8096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3">
       <c r="A546">
         <v>447</v>
       </c>
@@ -8120,7 +8107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3">
       <c r="A547">
         <v>447</v>
       </c>
@@ -8131,7 +8118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3">
       <c r="A548">
         <v>448</v>
       </c>
@@ -8142,7 +8129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3">
       <c r="A549">
         <v>448</v>
       </c>
@@ -8153,7 +8140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3">
       <c r="A550">
         <v>449</v>
       </c>
@@ -8164,7 +8151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3">
       <c r="A551">
         <v>449</v>
       </c>
@@ -8175,7 +8162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3">
       <c r="A552">
         <v>450</v>
       </c>
@@ -8186,7 +8173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3">
       <c r="A553">
         <v>450</v>
       </c>
@@ -8197,7 +8184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3">
       <c r="A554">
         <v>450</v>
       </c>
@@ -8208,7 +8195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3">
       <c r="A555">
         <v>452</v>
       </c>
@@ -8219,7 +8206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3">
       <c r="A556">
         <v>452</v>
       </c>
@@ -8230,7 +8217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3">
       <c r="A557">
         <v>452</v>
       </c>
@@ -8241,7 +8228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3">
       <c r="A558">
         <v>453</v>
       </c>
@@ -8252,7 +8239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3">
       <c r="A559">
         <v>453</v>
       </c>
@@ -8263,7 +8250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3">
       <c r="A560">
         <v>453</v>
       </c>
@@ -8274,7 +8261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3">
       <c r="A561">
         <v>454</v>
       </c>
@@ -8285,7 +8272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3">
       <c r="A562">
         <v>454</v>
       </c>
@@ -8296,7 +8283,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3">
       <c r="A563">
         <v>454</v>
       </c>
@@ -8307,7 +8294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3">
       <c r="A564">
         <v>455</v>
       </c>
@@ -8318,7 +8305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3">
       <c r="A565">
         <v>455</v>
       </c>
@@ -8329,7 +8316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3">
       <c r="A566">
         <v>456</v>
       </c>
@@ -8340,7 +8327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3">
       <c r="A567">
         <v>456</v>
       </c>
@@ -8351,7 +8338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3">
       <c r="A568">
         <v>456</v>
       </c>
@@ -8362,7 +8349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3">
       <c r="A569">
         <v>457</v>
       </c>
@@ -8373,7 +8360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3">
       <c r="A570">
         <v>457</v>
       </c>
@@ -8384,7 +8371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3">
       <c r="A571">
         <v>457</v>
       </c>
@@ -8395,7 +8382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3">
       <c r="A572">
         <v>458</v>
       </c>
@@ -8406,7 +8393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3">
       <c r="A573">
         <v>458</v>
       </c>
@@ -8417,7 +8404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3">
       <c r="A574">
         <v>458</v>
       </c>
@@ -8428,7 +8415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3">
       <c r="A575">
         <v>459</v>
       </c>
@@ -8439,7 +8426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3">
       <c r="A576">
         <v>459</v>
       </c>
@@ -8450,7 +8437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3">
       <c r="A577">
         <v>459</v>
       </c>
@@ -8461,7 +8448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3">
       <c r="A578">
         <v>460</v>
       </c>
@@ -8472,7 +8459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3">
       <c r="A579">
         <v>460</v>
       </c>
@@ -8483,7 +8470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3">
       <c r="A580">
         <v>461</v>
       </c>
@@ -8494,7 +8481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3">
       <c r="A581">
         <v>461</v>
       </c>
@@ -8505,7 +8492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3">
       <c r="A582">
         <v>462</v>
       </c>
@@ -8516,7 +8503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3">
       <c r="A583">
         <v>462</v>
       </c>
@@ -8527,7 +8514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3">
       <c r="A584">
         <v>463</v>
       </c>
@@ -8538,7 +8525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3">
       <c r="A585">
         <v>463</v>
       </c>
@@ -8549,7 +8536,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3">
       <c r="A586">
         <v>463</v>
       </c>
@@ -8560,7 +8547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3">
       <c r="A587">
         <v>464</v>
       </c>
@@ -8571,7 +8558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3">
       <c r="A588">
         <v>464</v>
       </c>
@@ -8582,7 +8569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3">
       <c r="A589">
         <v>464</v>
       </c>
@@ -8593,7 +8580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3">
       <c r="A590">
         <v>465</v>
       </c>
@@ -8604,7 +8591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3">
       <c r="A591">
         <v>465</v>
       </c>
@@ -8615,7 +8602,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3">
       <c r="A592">
         <v>465</v>
       </c>
@@ -8626,7 +8613,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3">
       <c r="A593">
         <v>466</v>
       </c>
@@ -8637,7 +8624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3">
       <c r="A594">
         <v>466</v>
       </c>
@@ -8648,7 +8635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3">
       <c r="A595">
         <v>466</v>
       </c>
@@ -8659,7 +8646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3">
       <c r="A596">
         <v>467</v>
       </c>
@@ -8670,7 +8657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3">
       <c r="A597">
         <v>467</v>
       </c>
@@ -8681,7 +8668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3">
       <c r="A598">
         <v>467</v>
       </c>
@@ -8692,7 +8679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3">
       <c r="A599">
         <v>468</v>
       </c>
@@ -8703,7 +8690,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3">
       <c r="A600">
         <v>468</v>
       </c>
@@ -8714,7 +8701,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3">
       <c r="A601">
         <v>468</v>
       </c>
@@ -8725,7 +8712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3">
       <c r="A602">
         <v>469</v>
       </c>
@@ -8736,7 +8723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3">
       <c r="A603">
         <v>469</v>
       </c>
@@ -8747,7 +8734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3">
       <c r="A604">
         <v>469</v>
       </c>
@@ -8758,7 +8745,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3">
       <c r="A605">
         <v>470</v>
       </c>
@@ -8769,7 +8756,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3">
       <c r="A606">
         <v>470</v>
       </c>
@@ -8780,7 +8767,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3">
       <c r="A607">
         <v>470</v>
       </c>
@@ -8791,7 +8778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3">
       <c r="A608">
         <v>471</v>
       </c>
@@ -8802,7 +8789,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3">
       <c r="A609">
         <v>471</v>
       </c>
@@ -8813,7 +8800,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3">
       <c r="A610">
         <v>472</v>
       </c>
@@ -8824,7 +8811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3">
       <c r="A611">
         <v>472</v>
       </c>
@@ -8835,7 +8822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3">
       <c r="A612">
         <v>472</v>
       </c>
@@ -8846,7 +8833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3">
       <c r="A613">
         <v>473</v>
       </c>
@@ -8857,7 +8844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3">
       <c r="A614">
         <v>473</v>
       </c>
@@ -8868,7 +8855,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3">
       <c r="A615">
         <v>473</v>
       </c>
@@ -8879,7 +8866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3">
       <c r="A616">
         <v>474</v>
       </c>
@@ -8890,7 +8877,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3">
       <c r="A617">
         <v>474</v>
       </c>
@@ -8901,7 +8888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3">
       <c r="A618">
         <v>474</v>
       </c>
@@ -8912,7 +8899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3">
       <c r="A619">
         <v>475</v>
       </c>
@@ -8923,7 +8910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3">
       <c r="A620">
         <v>475</v>
       </c>
@@ -8934,7 +8921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3">
       <c r="A621">
         <v>475</v>
       </c>
@@ -8945,7 +8932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3">
       <c r="A622">
         <v>475</v>
       </c>
@@ -8956,7 +8943,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3">
       <c r="A623">
         <v>476</v>
       </c>
@@ -8967,7 +8954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3">
       <c r="A624">
         <v>476</v>
       </c>
@@ -8978,7 +8965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3">
       <c r="A625">
         <v>476</v>
       </c>
@@ -8989,7 +8976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3">
       <c r="A626">
         <v>476</v>
       </c>
@@ -9000,7 +8987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3">
       <c r="A627">
         <v>478</v>
       </c>
@@ -9011,7 +8998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3">
       <c r="A628">
         <v>478</v>
       </c>
@@ -9022,7 +9009,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3">
       <c r="A629">
         <v>478</v>
       </c>
@@ -9033,7 +9020,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3">
       <c r="A630">
         <v>478</v>
       </c>
@@ -9044,7 +9031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3">
       <c r="A631">
         <v>478</v>
       </c>
@@ -9055,7 +9042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3">
       <c r="A632">
         <v>478</v>
       </c>
@@ -9066,7 +9053,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3">
       <c r="A633">
         <v>478</v>
       </c>
@@ -9077,7 +9064,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3">
       <c r="A634">
         <v>479</v>
       </c>
@@ -9088,7 +9075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3">
       <c r="A635">
         <v>479</v>
       </c>
@@ -9099,7 +9086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3">
       <c r="A636">
         <v>480</v>
       </c>
@@ -9110,7 +9097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3">
       <c r="A637">
         <v>480</v>
       </c>
@@ -9121,7 +9108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3">
       <c r="A638">
         <v>481</v>
       </c>
@@ -9132,7 +9119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3">
       <c r="A639">
         <v>481</v>
       </c>
@@ -9143,7 +9130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3">
       <c r="A640">
         <v>482</v>
       </c>
@@ -9154,7 +9141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3">
       <c r="A641">
         <v>482</v>
       </c>
@@ -9165,7 +9152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3">
       <c r="A642">
         <v>483</v>
       </c>
@@ -9176,7 +9163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3">
       <c r="A643">
         <v>483</v>
       </c>
@@ -9187,7 +9174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3">
       <c r="A644">
         <v>483</v>
       </c>
@@ -9198,7 +9185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3">
       <c r="A645">
         <v>483</v>
       </c>
@@ -9209,7 +9196,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3">
       <c r="A646">
         <v>483</v>
       </c>
@@ -9220,7 +9207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3">
       <c r="A647">
         <v>484</v>
       </c>
@@ -9231,7 +9218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3">
       <c r="A648">
         <v>484</v>
       </c>
@@ -9242,7 +9229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3">
       <c r="A649">
         <v>484</v>
       </c>
@@ -9253,7 +9240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3">
       <c r="A650">
         <v>487</v>
       </c>
@@ -9264,7 +9251,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3">
       <c r="A651">
         <v>490</v>
       </c>
@@ -9275,7 +9262,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3">
       <c r="A652">
         <v>490</v>
       </c>
@@ -9286,7 +9273,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3">
       <c r="A653">
         <v>491</v>
       </c>
@@ -9297,7 +9284,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3">
       <c r="A654">
         <v>491</v>
       </c>
@@ -9308,7 +9295,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3">
       <c r="A655">
         <v>494</v>
       </c>
@@ -9319,7 +9306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3">
       <c r="A656">
         <v>494</v>
       </c>
@@ -9330,7 +9317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3">
       <c r="A657">
         <v>495</v>
       </c>
@@ -9341,7 +9328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3">
       <c r="A658">
         <v>495</v>
       </c>
@@ -9352,7 +9339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3">
       <c r="A659">
         <v>496</v>
       </c>
@@ -9363,7 +9350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3">
       <c r="A660">
         <v>496</v>
       </c>
@@ -9374,7 +9361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3">
       <c r="A661">
         <v>497</v>
       </c>
@@ -9385,7 +9372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3">
       <c r="A662">
         <v>497</v>
       </c>
@@ -9396,7 +9383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3">
       <c r="A663">
         <v>498</v>
       </c>
@@ -9407,7 +9394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3">
       <c r="A664">
         <v>498</v>
       </c>
@@ -9418,7 +9405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3">
       <c r="A665">
         <v>499</v>
       </c>
@@ -9429,7 +9416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3">
       <c r="A666">
         <v>499</v>
       </c>
@@ -9440,7 +9427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3">
       <c r="A667">
         <v>500</v>
       </c>
@@ -9451,7 +9438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3">
       <c r="A668">
         <v>500</v>
       </c>
@@ -9462,7 +9449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3">
       <c r="A669">
         <v>602</v>
       </c>
@@ -9473,7 +9460,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3">
       <c r="A670">
         <v>602</v>
       </c>
@@ -9484,7 +9471,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3">
       <c r="A671">
         <v>602</v>
       </c>
@@ -9495,7 +9482,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3">
       <c r="A672">
         <v>602</v>
       </c>
@@ -9506,7 +9493,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3">
       <c r="A673">
         <v>602</v>
       </c>
@@ -9517,7 +9504,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3">
       <c r="A674">
         <v>602</v>
       </c>
@@ -9528,7 +9515,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3">
       <c r="A675">
         <v>603</v>
       </c>
@@ -9539,7 +9526,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3">
       <c r="A676">
         <v>603</v>
       </c>
@@ -9550,7 +9537,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3">
       <c r="A677">
         <v>603</v>
       </c>
@@ -9561,7 +9548,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3">
       <c r="A678">
         <v>603</v>
       </c>
@@ -9572,7 +9559,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3">
       <c r="A679">
         <v>603</v>
       </c>
@@ -9583,7 +9570,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3">
       <c r="A680">
         <v>603</v>
       </c>
@@ -9594,7 +9581,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3">
       <c r="A681">
         <v>604</v>
       </c>
@@ -9605,7 +9592,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3">
       <c r="A682">
         <v>604</v>
       </c>
@@ -9616,7 +9603,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3">
       <c r="A683">
         <v>604</v>
       </c>
@@ -9627,7 +9614,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3">
       <c r="A684">
         <v>604</v>
       </c>
@@ -9638,7 +9625,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3">
       <c r="A685">
         <v>604</v>
       </c>
@@ -9649,7 +9636,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3">
       <c r="A686">
         <v>604</v>
       </c>
@@ -9660,7 +9647,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3">
       <c r="A687">
         <v>607</v>
       </c>
@@ -9671,7 +9658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3">
       <c r="A688">
         <v>607</v>
       </c>
@@ -9682,7 +9669,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3">
       <c r="A689">
         <v>607</v>
       </c>
@@ -9693,7 +9680,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3">
       <c r="A690">
         <v>607</v>
       </c>
@@ -9704,7 +9691,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3">
       <c r="A691">
         <v>607</v>
       </c>
@@ -9715,7 +9702,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3">
       <c r="A692">
         <v>607</v>
       </c>
@@ -9726,7 +9713,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3">
       <c r="A693">
         <v>607</v>
       </c>
@@ -9737,7 +9724,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3">
       <c r="A694">
         <v>607</v>
       </c>
@@ -9748,7 +9735,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3">
       <c r="A695">
         <v>607</v>
       </c>
@@ -9759,7 +9746,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3">
       <c r="A696">
         <v>607</v>
       </c>
@@ -9770,7 +9757,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3">
       <c r="A697">
         <v>607</v>
       </c>
@@ -9781,7 +9768,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3">
       <c r="A698">
         <v>607</v>
       </c>
@@ -9792,7 +9779,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3">
       <c r="A699">
         <v>607</v>
       </c>
@@ -9803,7 +9790,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3">
       <c r="A700">
         <v>607</v>
       </c>
@@ -9814,7 +9801,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3">
       <c r="A701">
         <v>607</v>
       </c>
@@ -9825,7 +9812,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3">
       <c r="A702">
         <v>607</v>
       </c>
@@ -9836,7 +9823,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3">
       <c r="A703">
         <v>608</v>
       </c>
@@ -9847,7 +9834,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3">
       <c r="A704">
         <v>611</v>
       </c>
@@ -9859,8 +9846,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="26" fitToHeight="50" orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/tools/rule_extend.xlsx
+++ b/tools/rule_extend.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavor/program/d3-node/tools/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCAB3FA3-E98B-914A-A3F2-B963E69E2523}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="580">
   <si>
     <t>ID</t>
   </si>
@@ -1760,14 +1765,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1778,28 +1778,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2089,19 +2098,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>131</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>131</v>
       </c>
@@ -2134,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>132</v>
       </c>
@@ -2145,7 +2155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>132</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>134</v>
       </c>
@@ -2167,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>134</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>135</v>
       </c>
@@ -2189,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>135</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>136</v>
       </c>
@@ -2211,7 +2221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>136</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>137</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>137</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>138</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>138</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>140</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>140</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>140</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>141</v>
       </c>
@@ -2310,7 +2320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>141</v>
       </c>
@@ -2321,7 +2331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>142</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>142</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>145</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>145</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>145</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>146</v>
       </c>
@@ -2387,7 +2397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>146</v>
       </c>
@@ -2398,7 +2408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>146</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>148</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>148</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>148</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>151</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>151</v>
       </c>
@@ -2464,7 +2474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>152</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>152</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>152</v>
       </c>
@@ -2497,7 +2507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>153</v>
       </c>
@@ -2508,7 +2518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>153</v>
       </c>
@@ -2519,7 +2529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>153</v>
       </c>
@@ -2530,7 +2540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>154</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>154</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>154</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>155</v>
       </c>
@@ -2574,7 +2584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>155</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>155</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>156</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>156</v>
       </c>
@@ -2618,7 +2628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>157</v>
       </c>
@@ -2629,7 +2639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>157</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>158</v>
       </c>
@@ -2651,7 +2661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>158</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>159</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>159</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>165</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>165</v>
       </c>
@@ -2706,7 +2716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>165</v>
       </c>
@@ -2717,7 +2727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>165</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>165</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>165</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>165</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>165</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>165</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>165</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>165</v>
       </c>
@@ -2805,7 +2815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>165</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>167</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>167</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>167</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>168</v>
       </c>
@@ -2860,7 +2870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>168</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>170</v>
       </c>
@@ -2882,7 +2892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>173</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>173</v>
       </c>
@@ -2904,7 +2914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>174</v>
       </c>
@@ -2915,7 +2925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>174</v>
       </c>
@@ -2926,7 +2936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>176</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>176</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>176</v>
       </c>
@@ -2959,7 +2969,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>177</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>177</v>
       </c>
@@ -2981,7 +2991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>177</v>
       </c>
@@ -2992,7 +3002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>178</v>
       </c>
@@ -3003,7 +3013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>178</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>178</v>
       </c>
@@ -3025,7 +3035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>179</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>179</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>179</v>
       </c>
@@ -3058,7 +3068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>180</v>
       </c>
@@ -3069,7 +3079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>180</v>
       </c>
@@ -3080,7 +3090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>180</v>
       </c>
@@ -3091,7 +3101,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>181</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>181</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>181</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>182</v>
       </c>
@@ -3135,7 +3145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>182</v>
       </c>
@@ -3146,7 +3156,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>182</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>183</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>183</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>183</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>184</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>184</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>185</v>
       </c>
@@ -3223,7 +3233,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>185</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>185</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>186</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>186</v>
       </c>
@@ -3267,7 +3277,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>186</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>189</v>
       </c>
@@ -3289,7 +3299,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>189</v>
       </c>
@@ -3300,7 +3310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>189</v>
       </c>
@@ -3311,7 +3321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>192</v>
       </c>
@@ -3322,7 +3332,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>192</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>192</v>
       </c>
@@ -3344,7 +3354,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>195</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>195</v>
       </c>
@@ -3366,7 +3376,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>195</v>
       </c>
@@ -3377,7 +3387,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>195</v>
       </c>
@@ -3388,7 +3398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>197</v>
       </c>
@@ -3399,7 +3409,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>197</v>
       </c>
@@ -3410,7 +3420,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>197</v>
       </c>
@@ -3421,7 +3431,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>197</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>199</v>
       </c>
@@ -3443,7 +3453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>199</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>199</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>199</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>199</v>
       </c>
@@ -3487,7 +3497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>199</v>
       </c>
@@ -3498,7 +3508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>199</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>202</v>
       </c>
@@ -3520,7 +3530,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>202</v>
       </c>
@@ -3531,7 +3541,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>202</v>
       </c>
@@ -3542,7 +3552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>202</v>
       </c>
@@ -3553,7 +3563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>202</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>202</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>202</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>202</v>
       </c>
@@ -3597,7 +3607,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>202</v>
       </c>
@@ -3608,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>208</v>
       </c>
@@ -3619,7 +3629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>208</v>
       </c>
@@ -3630,7 +3640,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>208</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>208</v>
       </c>
@@ -3652,7 +3662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>208</v>
       </c>
@@ -3663,7 +3673,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>208</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>208</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>208</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>208</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>208</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>208</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>208</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>208</v>
       </c>
@@ -3751,7 +3761,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>208</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>208</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>208</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>208</v>
       </c>
@@ -3806,7 +3816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>208</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>208</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>208</v>
       </c>
@@ -3839,7 +3849,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>209</v>
       </c>
@@ -3850,7 +3860,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>209</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>212</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>212</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>212</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>212</v>
       </c>
@@ -3905,7 +3915,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>212</v>
       </c>
@@ -3916,7 +3926,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>212</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>212</v>
       </c>
@@ -3938,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>213</v>
       </c>
@@ -3949,7 +3959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>213</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>213</v>
       </c>
@@ -3971,7 +3981,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>213</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>213</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>214</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>214</v>
       </c>
@@ -4015,7 +4025,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>214</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>214</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>214</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>214</v>
       </c>
@@ -4059,7 +4069,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>214</v>
       </c>
@@ -4070,7 +4080,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>214</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>214</v>
       </c>
@@ -4092,7 +4102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>214</v>
       </c>
@@ -4103,7 +4113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>222</v>
       </c>
@@ -4114,7 +4124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>223</v>
       </c>
@@ -4125,7 +4135,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>223</v>
       </c>
@@ -4136,7 +4146,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>223</v>
       </c>
@@ -4147,7 +4157,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>223</v>
       </c>
@@ -4158,7 +4168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>225</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>225</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>258</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>258</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>258</v>
       </c>
@@ -4213,7 +4223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>258</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>258</v>
       </c>
@@ -4235,7 +4245,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>258</v>
       </c>
@@ -4246,7 +4256,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>260</v>
       </c>
@@ -4257,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>260</v>
       </c>
@@ -4268,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>262</v>
       </c>
@@ -4279,7 +4289,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>262</v>
       </c>
@@ -4290,7 +4300,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>262</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>262</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>262</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>266</v>
       </c>
@@ -4334,7 +4344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>266</v>
       </c>
@@ -4345,7 +4355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>266</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>266</v>
       </c>
@@ -4367,7 +4377,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>266</v>
       </c>
@@ -4378,7 +4388,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>267</v>
       </c>
@@ -4389,7 +4399,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>267</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>268</v>
       </c>
@@ -4411,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>300</v>
       </c>
@@ -4422,7 +4432,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>300</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>300</v>
       </c>
@@ -4444,7 +4454,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>300</v>
       </c>
@@ -4455,7 +4465,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>301</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>301</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>301</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>301</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>302</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>302</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>302</v>
       </c>
@@ -4532,7 +4542,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>303</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>303</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>303</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>304</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>304</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>304</v>
       </c>
@@ -4598,7 +4608,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>304</v>
       </c>
@@ -4609,7 +4619,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>307</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>307</v>
       </c>
@@ -4631,7 +4641,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>307</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>307</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>307</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>308</v>
       </c>
@@ -4675,7 +4685,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>308</v>
       </c>
@@ -4686,7 +4696,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>308</v>
       </c>
@@ -4697,7 +4707,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>308</v>
       </c>
@@ -4708,7 +4718,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>308</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>308</v>
       </c>
@@ -4730,7 +4740,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>308</v>
       </c>
@@ -4741,7 +4751,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>309</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>309</v>
       </c>
@@ -4763,7 +4773,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>309</v>
       </c>
@@ -4774,7 +4784,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>309</v>
       </c>
@@ -4785,7 +4795,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>309</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>309</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>310</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>310</v>
       </c>
@@ -4829,7 +4839,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>311</v>
       </c>
@@ -4840,7 +4850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>311</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>311</v>
       </c>
@@ -4862,7 +4872,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>312</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>312</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>312</v>
       </c>
@@ -4895,7 +4905,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>312</v>
       </c>
@@ -4906,7 +4916,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>313</v>
       </c>
@@ -4917,7 +4927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>313</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>313</v>
       </c>
@@ -4939,7 +4949,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>316</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>316</v>
       </c>
@@ -4961,7 +4971,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>316</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>317</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>317</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>317</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>319</v>
       </c>
@@ -5016,7 +5026,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>319</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>321</v>
       </c>
@@ -5038,7 +5048,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>321</v>
       </c>
@@ -5049,7 +5059,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>321</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>321</v>
       </c>
@@ -5071,7 +5081,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>321</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>322</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>323</v>
       </c>
@@ -5104,7 +5114,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>323</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>323</v>
       </c>
@@ -5126,7 +5136,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>324</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>324</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>324</v>
       </c>
@@ -5159,7 +5169,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>324</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>324</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>324</v>
       </c>
@@ -5192,7 +5202,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>324</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>324</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>324</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>328</v>
       </c>
@@ -5236,7 +5246,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>328</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>328</v>
       </c>
@@ -5258,7 +5268,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>329</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>330</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>330</v>
       </c>
@@ -5291,7 +5301,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>330</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>330</v>
       </c>
@@ -5313,7 +5323,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>330</v>
       </c>
@@ -5324,7 +5334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>330</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>330</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>330</v>
       </c>
@@ -5357,7 +5367,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>330</v>
       </c>
@@ -5368,7 +5378,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>330</v>
       </c>
@@ -5379,7 +5389,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>330</v>
       </c>
@@ -5390,7 +5400,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>330</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>330</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>330</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>331</v>
       </c>
@@ -5434,7 +5444,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>332</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>333</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>334</v>
       </c>
@@ -5467,7 +5477,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>335</v>
       </c>
@@ -5478,7 +5488,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>335</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>335</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>335</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>335</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>335</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>336</v>
       </c>
@@ -5544,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>344</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>347</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>348</v>
       </c>
@@ -5577,7 +5587,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>348</v>
       </c>
@@ -5588,7 +5598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>348</v>
       </c>
@@ -5599,7 +5609,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>350</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>350</v>
       </c>
@@ -5621,7 +5631,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>350</v>
       </c>
@@ -5632,7 +5642,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>350</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>351</v>
       </c>
@@ -5654,7 +5664,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>354</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>354</v>
       </c>
@@ -5676,7 +5686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>354</v>
       </c>
@@ -5687,7 +5697,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>354</v>
       </c>
@@ -5698,7 +5708,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>354</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>355</v>
       </c>
@@ -5720,7 +5730,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>355</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>355</v>
       </c>
@@ -5742,7 +5752,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>355</v>
       </c>
@@ -5753,7 +5763,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>355</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>355</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>355</v>
       </c>
@@ -5786,7 +5796,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>356</v>
       </c>
@@ -5797,7 +5807,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>356</v>
       </c>
@@ -5808,7 +5818,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>356</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>356</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>356</v>
       </c>
@@ -5841,7 +5851,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>356</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>357</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>358</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>358</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>359</v>
       </c>
@@ -5918,7 +5928,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>359</v>
       </c>
@@ -5929,7 +5939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>359</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>359</v>
       </c>
@@ -5951,7 +5961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>360</v>
       </c>
@@ -5962,7 +5972,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>360</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>360</v>
       </c>
@@ -5984,7 +5994,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>361</v>
       </c>
@@ -5995,7 +6005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>361</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>361</v>
       </c>
@@ -6017,7 +6027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>361</v>
       </c>
@@ -6028,7 +6038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>361</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>361</v>
       </c>
@@ -6050,7 +6060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>361</v>
       </c>
@@ -6061,7 +6071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>361</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -6083,7 +6093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>361</v>
       </c>
@@ -6105,7 +6115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>361</v>
       </c>
@@ -6116,7 +6126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>363</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>363</v>
       </c>
@@ -6138,7 +6148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>363</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>363</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>364</v>
       </c>
@@ -6171,7 +6181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>364</v>
       </c>
@@ -6182,7 +6192,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>364</v>
       </c>
@@ -6193,7 +6203,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>364</v>
       </c>
@@ -6204,7 +6214,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>365</v>
       </c>
@@ -6215,7 +6225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>365</v>
       </c>
@@ -6226,7 +6236,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>365</v>
       </c>
@@ -6237,7 +6247,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>366</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>366</v>
       </c>
@@ -6259,7 +6269,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>366</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>366</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>373</v>
       </c>
@@ -6292,7 +6302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>373</v>
       </c>
@@ -6303,7 +6313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>374</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>374</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>375</v>
       </c>
@@ -6336,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>375</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>376</v>
       </c>
@@ -6358,7 +6368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>376</v>
       </c>
@@ -6369,7 +6379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>377</v>
       </c>
@@ -6380,7 +6390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>377</v>
       </c>
@@ -6391,7 +6401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>378</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>378</v>
       </c>
@@ -6413,7 +6423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>378</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>380</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>380</v>
       </c>
@@ -6446,7 +6456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>380</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>381</v>
       </c>
@@ -6468,7 +6478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>381</v>
       </c>
@@ -6479,7 +6489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>381</v>
       </c>
@@ -6490,7 +6500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>382</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>382</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>382</v>
       </c>
@@ -6523,7 +6533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>383</v>
       </c>
@@ -6534,7 +6544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>383</v>
       </c>
@@ -6545,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>384</v>
       </c>
@@ -6556,7 +6566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>384</v>
       </c>
@@ -6567,7 +6577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>385</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>385</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>386</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>386</v>
       </c>
@@ -6611,7 +6621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>389</v>
       </c>
@@ -6622,7 +6632,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>390</v>
       </c>
@@ -6633,7 +6643,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>390</v>
       </c>
@@ -6644,7 +6654,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>390</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>391</v>
       </c>
@@ -6666,7 +6676,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>391</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>392</v>
       </c>
@@ -6688,7 +6698,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>392</v>
       </c>
@@ -6699,7 +6709,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>393</v>
       </c>
@@ -6710,7 +6720,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>393</v>
       </c>
@@ -6721,7 +6731,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>393</v>
       </c>
@@ -6732,7 +6742,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>393</v>
       </c>
@@ -6743,7 +6753,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>393</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>393</v>
       </c>
@@ -6765,7 +6775,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>393</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>393</v>
       </c>
@@ -6787,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>394</v>
       </c>
@@ -6798,7 +6808,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>394</v>
       </c>
@@ -6809,7 +6819,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>394</v>
       </c>
@@ -6820,7 +6830,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>396</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>396</v>
       </c>
@@ -6842,7 +6852,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>396</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>397</v>
       </c>
@@ -6864,7 +6874,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>397</v>
       </c>
@@ -6875,7 +6885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>397</v>
       </c>
@@ -6886,7 +6896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>397</v>
       </c>
@@ -6897,7 +6907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>397</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>397</v>
       </c>
@@ -6919,7 +6929,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>397</v>
       </c>
@@ -6930,7 +6940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>397</v>
       </c>
@@ -6941,7 +6951,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>397</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>397</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>397</v>
       </c>
@@ -6974,7 +6984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>398</v>
       </c>
@@ -6985,7 +6995,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>398</v>
       </c>
@@ -6996,7 +7006,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>398</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>398</v>
       </c>
@@ -7018,7 +7028,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>398</v>
       </c>
@@ -7029,7 +7039,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>398</v>
       </c>
@@ -7040,7 +7050,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>398</v>
       </c>
@@ -7051,7 +7061,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>398</v>
       </c>
@@ -7062,7 +7072,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>398</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>398</v>
       </c>
@@ -7084,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>399</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>399</v>
       </c>
@@ -7106,7 +7116,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>399</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>399</v>
       </c>
@@ -7128,7 +7138,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>399</v>
       </c>
@@ -7139,7 +7149,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>399</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>399</v>
       </c>
@@ -7161,7 +7171,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>399</v>
       </c>
@@ -7172,7 +7182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>399</v>
       </c>
@@ -7183,7 +7193,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>399</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>399</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>399</v>
       </c>
@@ -7216,7 +7226,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>399</v>
       </c>
@@ -7227,7 +7237,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>399</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>399</v>
       </c>
@@ -7249,7 +7259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>399</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>399</v>
       </c>
@@ -7271,7 +7281,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>399</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>399</v>
       </c>
@@ -7293,7 +7303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>399</v>
       </c>
@@ -7304,7 +7314,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>399</v>
       </c>
@@ -7315,7 +7325,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>399</v>
       </c>
@@ -7326,7 +7336,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>399</v>
       </c>
@@ -7337,7 +7347,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>399</v>
       </c>
@@ -7348,7 +7358,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>399</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>399</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>399</v>
       </c>
@@ -7381,7 +7391,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>399</v>
       </c>
@@ -7392,7 +7402,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>399</v>
       </c>
@@ -7403,7 +7413,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>399</v>
       </c>
@@ -7414,7 +7424,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>402</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>403</v>
       </c>
@@ -7436,7 +7446,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>403</v>
       </c>
@@ -7447,7 +7457,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>407</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>407</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>407</v>
       </c>
@@ -7480,7 +7490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>407</v>
       </c>
@@ -7491,7 +7501,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>407</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>408</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>408</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>408</v>
       </c>
@@ -7535,7 +7545,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>408</v>
       </c>
@@ -7546,7 +7556,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>408</v>
       </c>
@@ -7557,7 +7567,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>408</v>
       </c>
@@ -7568,7 +7578,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>408</v>
       </c>
@@ -7579,7 +7589,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>409</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>409</v>
       </c>
@@ -7601,7 +7611,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>409</v>
       </c>
@@ -7612,7 +7622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>409</v>
       </c>
@@ -7623,7 +7633,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>409</v>
       </c>
@@ -7634,7 +7644,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>409</v>
       </c>
@@ -7645,7 +7655,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>410</v>
       </c>
@@ -7656,7 +7666,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>410</v>
       </c>
@@ -7667,7 +7677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>411</v>
       </c>
@@ -7678,7 +7688,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>411</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>411</v>
       </c>
@@ -7700,7 +7710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>412</v>
       </c>
@@ -7711,7 +7721,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>412</v>
       </c>
@@ -7722,7 +7732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>412</v>
       </c>
@@ -7733,7 +7743,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>412</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>413</v>
       </c>
@@ -7755,7 +7765,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>413</v>
       </c>
@@ -7766,7 +7776,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>413</v>
       </c>
@@ -7777,7 +7787,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>418</v>
       </c>
@@ -7788,7 +7798,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>418</v>
       </c>
@@ -7799,7 +7809,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>418</v>
       </c>
@@ -7810,7 +7820,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>418</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>419</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>419</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>419</v>
       </c>
@@ -7854,7 +7864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>419</v>
       </c>
@@ -7865,7 +7875,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>420</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>420</v>
       </c>
@@ -7887,7 +7897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>420</v>
       </c>
@@ -7898,7 +7908,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>421</v>
       </c>
@@ -7909,7 +7919,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>421</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>421</v>
       </c>
@@ -7931,7 +7941,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>421</v>
       </c>
@@ -7942,7 +7952,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>433</v>
       </c>
@@ -7953,7 +7963,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>433</v>
       </c>
@@ -7964,7 +7974,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>434</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>434</v>
       </c>
@@ -7986,7 +7996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>434</v>
       </c>
@@ -7997,7 +8007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>435</v>
       </c>
@@ -8008,7 +8018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>435</v>
       </c>
@@ -8019,7 +8029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>436</v>
       </c>
@@ -8030,7 +8040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>437</v>
       </c>
@@ -8041,7 +8051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>437</v>
       </c>
@@ -8052,7 +8062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>445</v>
       </c>
@@ -8063,7 +8073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>445</v>
       </c>
@@ -8074,7 +8084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>446</v>
       </c>
@@ -8085,7 +8095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>446</v>
       </c>
@@ -8096,7 +8106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>447</v>
       </c>
@@ -8107,7 +8117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>447</v>
       </c>
@@ -8118,7 +8128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>448</v>
       </c>
@@ -8129,7 +8139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>448</v>
       </c>
@@ -8140,7 +8150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>449</v>
       </c>
@@ -8151,7 +8161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>449</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>450</v>
       </c>
@@ -8173,7 +8183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>450</v>
       </c>
@@ -8184,7 +8194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>450</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>452</v>
       </c>
@@ -8206,7 +8216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>452</v>
       </c>
@@ -8217,7 +8227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>452</v>
       </c>
@@ -8228,7 +8238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>453</v>
       </c>
@@ -8239,7 +8249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>453</v>
       </c>
@@ -8250,7 +8260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>453</v>
       </c>
@@ -8261,7 +8271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>454</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>454</v>
       </c>
@@ -8283,7 +8293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>454</v>
       </c>
@@ -8294,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>455</v>
       </c>
@@ -8305,7 +8315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>455</v>
       </c>
@@ -8316,7 +8326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>456</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>456</v>
       </c>
@@ -8338,7 +8348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>456</v>
       </c>
@@ -8349,7 +8359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>457</v>
       </c>
@@ -8360,7 +8370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>457</v>
       </c>
@@ -8371,7 +8381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>457</v>
       </c>
@@ -8382,7 +8392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>458</v>
       </c>
@@ -8393,7 +8403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>458</v>
       </c>
@@ -8404,7 +8414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>458</v>
       </c>
@@ -8415,7 +8425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>459</v>
       </c>
@@ -8426,7 +8436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>459</v>
       </c>
@@ -8437,7 +8447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>459</v>
       </c>
@@ -8448,7 +8458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>460</v>
       </c>
@@ -8459,7 +8469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>460</v>
       </c>
@@ -8470,7 +8480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>461</v>
       </c>
@@ -8481,7 +8491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>461</v>
       </c>
@@ -8492,7 +8502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>462</v>
       </c>
@@ -8503,7 +8513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>462</v>
       </c>
@@ -8514,7 +8524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>463</v>
       </c>
@@ -8525,7 +8535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>463</v>
       </c>
@@ -8536,7 +8546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>463</v>
       </c>
@@ -8547,7 +8557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>464</v>
       </c>
@@ -8558,7 +8568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>464</v>
       </c>
@@ -8569,7 +8579,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>464</v>
       </c>
@@ -8580,7 +8590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>465</v>
       </c>
@@ -8591,7 +8601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>465</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>465</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>466</v>
       </c>
@@ -8624,7 +8634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>466</v>
       </c>
@@ -8635,7 +8645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>466</v>
       </c>
@@ -8646,7 +8656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>467</v>
       </c>
@@ -8657,7 +8667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>467</v>
       </c>
@@ -8668,7 +8678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>467</v>
       </c>
@@ -8679,7 +8689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>468</v>
       </c>
@@ -8690,7 +8700,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>468</v>
       </c>
@@ -8701,7 +8711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>468</v>
       </c>
@@ -8712,7 +8722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>469</v>
       </c>
@@ -8723,7 +8733,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>469</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>469</v>
       </c>
@@ -8745,7 +8755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>470</v>
       </c>
@@ -8756,7 +8766,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>470</v>
       </c>
@@ -8767,7 +8777,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>470</v>
       </c>
@@ -8778,7 +8788,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>471</v>
       </c>
@@ -8789,7 +8799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>471</v>
       </c>
@@ -8800,7 +8810,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>472</v>
       </c>
@@ -8811,7 +8821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>472</v>
       </c>
@@ -8822,7 +8832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>472</v>
       </c>
@@ -8833,7 +8843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>473</v>
       </c>
@@ -8844,7 +8854,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>473</v>
       </c>
@@ -8855,7 +8865,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>473</v>
       </c>
@@ -8866,7 +8876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>474</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>474</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>474</v>
       </c>
@@ -8899,7 +8909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>475</v>
       </c>
@@ -8910,7 +8920,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>475</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>475</v>
       </c>
@@ -8932,7 +8942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>475</v>
       </c>
@@ -8943,7 +8953,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>476</v>
       </c>
@@ -8954,7 +8964,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>476</v>
       </c>
@@ -8965,7 +8975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>476</v>
       </c>
@@ -8976,7 +8986,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>476</v>
       </c>
@@ -8987,7 +8997,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>478</v>
       </c>
@@ -8998,7 +9008,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>478</v>
       </c>
@@ -9009,7 +9019,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>478</v>
       </c>
@@ -9020,7 +9030,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>478</v>
       </c>
@@ -9031,7 +9041,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>478</v>
       </c>
@@ -9042,7 +9052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>478</v>
       </c>
@@ -9053,7 +9063,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>478</v>
       </c>
@@ -9064,7 +9074,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>479</v>
       </c>
@@ -9075,7 +9085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>479</v>
       </c>
@@ -9086,7 +9096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>480</v>
       </c>
@@ -9097,7 +9107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>480</v>
       </c>
@@ -9108,7 +9118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>481</v>
       </c>
@@ -9119,7 +9129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>481</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>482</v>
       </c>
@@ -9141,7 +9151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>482</v>
       </c>
@@ -9152,7 +9162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>483</v>
       </c>
@@ -9163,7 +9173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>483</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>483</v>
       </c>
@@ -9185,7 +9195,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>483</v>
       </c>
@@ -9196,7 +9206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>483</v>
       </c>
@@ -9207,7 +9217,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>484</v>
       </c>
@@ -9218,7 +9228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>484</v>
       </c>
@@ -9229,7 +9239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>484</v>
       </c>
@@ -9240,7 +9250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>487</v>
       </c>
@@ -9251,7 +9261,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>490</v>
       </c>
@@ -9262,7 +9272,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>490</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>491</v>
       </c>
@@ -9284,7 +9294,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>491</v>
       </c>
@@ -9295,7 +9305,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>494</v>
       </c>
@@ -9306,7 +9316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>494</v>
       </c>
@@ -9317,7 +9327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>495</v>
       </c>
@@ -9328,7 +9338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>495</v>
       </c>
@@ -9339,7 +9349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>496</v>
       </c>
@@ -9350,7 +9360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>496</v>
       </c>
@@ -9361,7 +9371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>497</v>
       </c>
@@ -9372,7 +9382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>497</v>
       </c>
@@ -9383,7 +9393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>498</v>
       </c>
@@ -9394,7 +9404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>498</v>
       </c>
@@ -9405,7 +9415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>499</v>
       </c>
@@ -9416,7 +9426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>499</v>
       </c>
@@ -9427,7 +9437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>500</v>
       </c>
@@ -9438,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>500</v>
       </c>
@@ -9449,7 +9459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>602</v>
       </c>
@@ -9460,7 +9470,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>602</v>
       </c>
@@ -9471,7 +9481,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>602</v>
       </c>
@@ -9482,7 +9492,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>602</v>
       </c>
@@ -9493,7 +9503,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>602</v>
       </c>
@@ -9504,7 +9514,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>602</v>
       </c>
@@ -9515,7 +9525,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>603</v>
       </c>
@@ -9526,7 +9536,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>603</v>
       </c>
@@ -9537,7 +9547,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>603</v>
       </c>
@@ -9548,7 +9558,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>603</v>
       </c>
@@ -9559,7 +9569,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>603</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>603</v>
       </c>
@@ -9581,7 +9591,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>604</v>
       </c>
@@ -9592,7 +9602,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>604</v>
       </c>
@@ -9603,7 +9613,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>604</v>
       </c>
@@ -9614,7 +9624,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>604</v>
       </c>
@@ -9625,7 +9635,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>604</v>
       </c>
@@ -9636,7 +9646,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>604</v>
       </c>
@@ -9647,7 +9657,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>607</v>
       </c>
@@ -9658,7 +9668,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>607</v>
       </c>
@@ -9669,7 +9679,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>607</v>
       </c>
@@ -9680,7 +9690,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>607</v>
       </c>
@@ -9691,7 +9701,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>607</v>
       </c>
@@ -9702,7 +9712,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>607</v>
       </c>
@@ -9713,7 +9723,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>607</v>
       </c>
@@ -9724,7 +9734,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>607</v>
       </c>
@@ -9735,7 +9745,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>607</v>
       </c>
@@ -9746,7 +9756,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>607</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>607</v>
       </c>
@@ -9768,7 +9778,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>607</v>
       </c>
@@ -9779,7 +9789,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>607</v>
       </c>
@@ -9790,7 +9800,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>607</v>
       </c>
@@ -9801,7 +9811,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>607</v>
       </c>
@@ -9812,7 +9822,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>607</v>
       </c>
@@ -9823,7 +9833,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>608</v>
       </c>
@@ -9834,7 +9844,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>611</v>
       </c>
@@ -9846,17 +9856,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>